--- a/usage_plan_table2023.xlsx
+++ b/usage_plan_table2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatak\Desktop\2022スパコン課金\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akats\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3141B-79BA-43AC-A742-49C9F0C7B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE233F3-722B-4BD2-921B-1156276DA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利用目的等" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="記入例(普通版)" sheetId="8" r:id="rId3"/>
     <sheet name="記入例(グループQuota版)" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="表紙・文書履歴" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Fat">Sheet1!$F$6</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
   <si>
     <t>開始日</t>
   </si>
@@ -735,6 +736,44 @@
   <si>
     <t>計算ノード優先利用_個人ゲノム区画 料金合計</t>
   </si>
+  <si>
+    <t>バージョン: v1.0.0</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初版制定日: </t>
+    <rPh sb="0" eb="5">
+      <t>ショハンセイテイビ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最終更新日時: </t>
+    <rPh sb="0" eb="6">
+      <t>サイシュウコウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>文書管理番号: 【C-42】</t>
+    <rPh sb="0" eb="6">
+      <t>ブンショカンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>機密性1, 完全性1, 可用性1</t>
+    <rPh sb="0" eb="3">
+      <t>キミツセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンゼンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -746,7 +785,7 @@
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +868,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1455,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,6 +1804,27 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1783,26 +1864,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1900,15 +2057,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1921,94 +2069,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2044,6 +2104,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3552,22 +3618,22 @@
   </sheetPr>
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="6.4140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" style="62" customWidth="1"/>
     <col min="4" max="4" width="12" style="62" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="11.9140625" style="62" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" style="62" customWidth="1"/>
-    <col min="9" max="10" width="7.3984375" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="62"/>
+    <col min="8" max="8" width="10.9140625" style="62" customWidth="1"/>
+    <col min="9" max="10" width="7.4140625" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="10.9140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3590,60 +3656,60 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="65"/>
@@ -3672,18 +3738,18 @@
       <c r="A11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="69" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1">
       <c r="A13" s="77" t="s">
@@ -3701,13 +3767,13 @@
       <c r="E13" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="77">
@@ -3717,11 +3783,11 @@
       <c r="C14" s="73"/>
       <c r="D14" s="64"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="77">
@@ -3815,11 +3881,11 @@
       <c r="C21" s="73"/>
       <c r="D21" s="64"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1">
       <c r="A22" s="77">
@@ -3857,11 +3923,11 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="70"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="77">
@@ -3927,585 +3993,585 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="70"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="87"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.35" customHeight="1">
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.4" customHeight="1">
       <c r="A31" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="93"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="91"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="100"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="93"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="100"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="91"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="91"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="93"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="100"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="93"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="91"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="91"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="91"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="93"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="91"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="91"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="91"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="93"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="91"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="93"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="91"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="91"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="93"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="91"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="93"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="100"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="91"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="93"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="91"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="93"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="91"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="93"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="100"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="93"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="100"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="94"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="96"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.35" customHeight="1">
+      <c r="A54" s="101"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="103"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.4" customHeight="1">
       <c r="A56" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="88"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="90"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="97"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="93"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="91"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="93"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="100"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="93"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="100"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="93"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="100"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="91"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="91"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="93"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="100"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="91"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="93"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="100"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="93"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="100"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="93"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="100"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="93"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="91"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="93"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="100"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="91"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="93"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="91"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="93"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="100"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="91"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="93"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="100"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="91"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="93"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="91"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="93"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="100"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="91"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="91"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="93"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="100"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="91"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="93"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="100"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="91"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="93"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="100"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="91"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="93"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="100"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="91"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="93"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="100"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="94"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="96"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="103"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="62" t="s">
@@ -4513,283 +4579,291 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="88"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="90"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="97"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="91"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="93"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="100"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="91"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="93"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="99"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="100"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="91"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="93"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="100"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="91"/>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="93"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="100"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="91"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="92"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="92"/>
-      <c r="J89" s="93"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="100"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="91"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="93"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+      <c r="I90" s="99"/>
+      <c r="J90" s="100"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="91"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="93"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="99"/>
+      <c r="I91" s="99"/>
+      <c r="J91" s="100"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="91"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="93"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="100"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="91"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="93"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="100"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="91"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="93"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="100"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="91"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="93"/>
+      <c r="A95" s="98"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="100"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="91"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="93"/>
+      <c r="A96" s="98"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="100"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="91"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="93"/>
+      <c r="A97" s="98"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="100"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="91"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="93"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="99"/>
+      <c r="I98" s="99"/>
+      <c r="J98" s="100"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="91"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="93"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="100"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="91"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="93"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="100"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="91"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="93"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="100"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="91"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="93"/>
+      <c r="A102" s="98"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="100"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="91"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="93"/>
+      <c r="A103" s="98"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="100"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="91"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="92"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="92"/>
-      <c r="J104" s="93"/>
+      <c r="A104" s="98"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="100"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="91"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="93"/>
+      <c r="A105" s="98"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="100"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="94"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="95"/>
-      <c r="I106" s="95"/>
-      <c r="J106" s="96"/>
+      <c r="A106" s="101"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102"/>
+      <c r="J106" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A32:J54"/>
+    <mergeCell ref="A57:J80"/>
+    <mergeCell ref="A84:J106"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="F13:J13"/>
@@ -4799,14 +4873,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A32:J54"/>
-    <mergeCell ref="A57:J80"/>
-    <mergeCell ref="A84:J106"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F14:J14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4822,20 +4888,20 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" customWidth="1"/>
-    <col min="4" max="4" width="45.09765625" customWidth="1"/>
-    <col min="5" max="14" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="17.296875" customWidth="1"/>
-    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.08203125" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.08203125" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4870,116 +4936,116 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137"/>
-    </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="153"/>
-    </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
+    </row>
+    <row r="3" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+    </row>
+    <row r="4" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A4" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="110"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A5" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="140"/>
-    </row>
-    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="110"/>
+    </row>
+    <row r="6" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>82</v>
       </c>
@@ -5007,123 +5073,123 @@
       <c r="W6" s="39"/>
       <c r="X6" s="40"/>
     </row>
-    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="141" t="s">
+    <row r="7" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A7" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="143"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="113"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="129" t="s">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="144" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="120" t="s">
+      <c r="S8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="120" t="s">
+      <c r="T8" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="145" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="157" t="s">
+      <c r="X8" s="130" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="126" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="149"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="71"/>
       <c r="F10" s="11"/>
       <c r="G10" s="71"/>
@@ -5134,22 +5200,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="149"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="72"/>
       <c r="F11" s="13"/>
       <c r="G11" s="72"/>
@@ -5160,18 +5226,18 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="150"/>
-    </row>
-    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="82">
         <v>45017</v>
       </c>
@@ -5231,7 +5297,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
       <c r="C13" s="4"/>
@@ -5287,7 +5353,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="78"/>
       <c r="C14" s="4"/>
@@ -5343,7 +5409,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="78"/>
       <c r="C15" s="4"/>
@@ -5399,7 +5465,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="78"/>
       <c r="C16" s="3"/>
@@ -5455,7 +5521,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="78"/>
       <c r="C17" s="4"/>
@@ -5511,7 +5577,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="78"/>
       <c r="C18" s="4"/>
@@ -5567,7 +5633,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="78"/>
       <c r="C19" s="4"/>
@@ -5623,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="78"/>
       <c r="C20" s="4"/>
@@ -5679,7 +5745,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="78"/>
       <c r="C21" s="4"/>
@@ -5735,7 +5801,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="78"/>
       <c r="C22" s="4"/>
@@ -5791,7 +5857,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="78"/>
       <c r="C23" s="4"/>
@@ -5847,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="78"/>
       <c r="C24" s="4"/>
@@ -5903,7 +5969,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="20.149999999999999" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="78"/>
       <c r="C25" s="3"/>
@@ -5959,7 +6025,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:24" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="79"/>
       <c r="B26" s="79"/>
       <c r="C26" s="8"/>
@@ -6015,24 +6081,24 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="A27" s="108" t="s">
+    <row r="27" spans="1:24" ht="20.149999999999999" customHeight="1" thickTop="1">
+      <c r="A27" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="136"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -6055,24 +6121,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="105" t="s">
+    <row r="28" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A28" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="107"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -6091,24 +6157,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="111" t="s">
+    <row r="29" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A29" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="139"/>
       <c r="P29" s="54"/>
       <c r="U29" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$5)</f>
@@ -6127,24 +6193,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="111" t="s">
+    <row r="30" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A30" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="139"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
@@ -6167,24 +6233,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="132" t="s">
+    <row r="31" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A31" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="134"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="157"/>
       <c r="P31" s="54"/>
       <c r="U31" s="83">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
@@ -6203,24 +6269,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="111" t="s">
+    <row r="32" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A32" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="113"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="139"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
@@ -6243,24 +6309,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="105" t="s">
+    <row r="33" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A33" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="133"/>
       <c r="P33" s="54"/>
       <c r="U33" s="2">
         <f>SUM(U12:U26)</f>
@@ -6282,18 +6348,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="X8:X11"/>
     <mergeCell ref="A33:O33"/>
     <mergeCell ref="A27:O27"/>
     <mergeCell ref="A30:O30"/>
@@ -6310,6 +6364,18 @@
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="X8:X11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -6335,16 +6401,16 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" customWidth="1"/>
-    <col min="4" max="4" width="45.09765625" customWidth="1"/>
-    <col min="5" max="14" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" customWidth="1"/>
-    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.08203125" customWidth="1"/>
+    <col min="5" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.08203125" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6379,114 +6445,114 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
     </row>
     <row r="4" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
     </row>
     <row r="5" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
     </row>
     <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
@@ -6517,122 +6583,122 @@
       <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="129" t="s">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="144" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="120" t="s">
+      <c r="S8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="120" t="s">
+      <c r="T8" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="145" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="157" t="s">
+      <c r="X8" s="130" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="126" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="149"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="27" t="s">
         <v>14</v>
       </c>
@@ -6649,22 +6715,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="149"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
@@ -6681,16 +6747,16 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="150"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
     </row>
     <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
@@ -7653,23 +7719,23 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="136"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -7693,23 +7759,23 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="107"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2" t="e">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -7729,23 +7795,23 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="139"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
@@ -7841,23 +7907,23 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="133"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -7953,23 +8019,23 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -7993,23 +8059,23 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="107"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="133"/>
       <c r="P36" s="54"/>
       <c r="U36" s="2" t="e">
         <f>SUM(U12:U26)</f>
@@ -8031,6 +8097,21 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="V8:V11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="T8:T11"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="R8:R11"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A27:O27"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A8:A11"/>
@@ -8047,21 +8128,6 @@
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:V11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A33:O33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -8088,18 +8154,18 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" customWidth="1"/>
-    <col min="4" max="4" width="45.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="7" max="14" width="8.69921875" customWidth="1"/>
-    <col min="15" max="15" width="15.09765625" customWidth="1"/>
-    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.08203125" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.08203125" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8134,114 +8200,114 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="153"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
     </row>
     <row r="4" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
     </row>
     <row r="5" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
     </row>
     <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
@@ -8272,122 +8338,122 @@
       <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="129" t="s">
+      <c r="A8" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="144" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="120" t="s">
+      <c r="S8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="120" t="s">
+      <c r="T8" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="114" t="s">
+      <c r="U8" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="145" t="s">
+      <c r="W8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="157" t="s">
+      <c r="X8" s="130" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="126" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="149"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="122"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="149"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="27" t="s">
         <v>74</v>
       </c>
@@ -8402,22 +8468,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="149"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="122"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>34</v>
       </c>
@@ -8432,16 +8498,16 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="150"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="123"/>
     </row>
     <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
@@ -9388,23 +9454,23 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="136"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -9428,23 +9494,23 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="107"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="133"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2" t="e">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -9464,23 +9530,23 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="139"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
@@ -9576,23 +9642,23 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="133"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -9688,23 +9754,23 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -9728,23 +9794,23 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="107"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="133"/>
       <c r="P36" s="54"/>
       <c r="U36" s="2" t="e">
         <f>SUM(U12:U26)</f>
@@ -9766,11 +9832,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="U8:U11"/>
+    <mergeCell ref="V8:V11"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="X8:X11"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="T8:T11"/>
     <mergeCell ref="A27:O27"/>
     <mergeCell ref="O8:O11"/>
     <mergeCell ref="P8:P11"/>
@@ -9781,22 +9858,11 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:N8"/>
-    <mergeCell ref="U8:U11"/>
-    <mergeCell ref="V8:V11"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="X8:X11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="T8:T11"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A7:X7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -9821,17 +9887,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="47.69921875" customWidth="1"/>
-    <col min="2" max="2" width="29.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10010,4 +10076,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B064706-AF13-4834-89F6-187C76217077}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="167" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="168" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="168" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="167" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="167" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/usage_plan_table2023.xlsx
+++ b/usage_plan_table2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akats\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE233F3-722B-4BD2-921B-1156276DA9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142FF0D5-002B-4860-8F37-BF042F56D93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23040" yWindow="2940" windowWidth="32910" windowHeight="17940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利用目的等" sheetId="10" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>開始日</t>
   </si>
@@ -125,9 +125,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Quota設定のみ容量保証なし</t>
-  </si>
-  <si>
     <t>ストレージ大規模利用_個人ゲノム区画 - Quota設定のみ容量保証なし 料金合計</t>
     <rPh sb="11" eb="13">
       <t>コジン</t>
@@ -180,19 +177,10 @@
     <t>Thin(Intel)(1単位 = 1CPUコア 12GBメモリ)</t>
   </si>
   <si>
-    <t>Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 4CPUコア 48GBメモリ)</t>
-  </si>
-  <si>
     <t>Medium(1単位 = 13CPUコア 512GBメモリ)</t>
   </si>
   <si>
     <t>Fat(1単位 = 24CPUコア 1TBメモリ)</t>
-  </si>
-  <si>
-    <t>高速ストレージ容量保証</t>
-  </si>
-  <si>
-    <t>アーカイブ</t>
   </si>
   <si>
     <t>年間料金
@@ -375,10 +363,6 @@
     <rPh sb="2" eb="4">
       <t>ジロウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 4CPUコア 48GBメモリ)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -773,6 +757,17 @@
       <t>カヨウセイ</t>
     </rPh>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 6CPUコア 96GBメモリ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 6CPUコア 96GBメモリ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 6CPUコア 96GBメモリ)</t>
   </si>
 </sst>
 </file>
@@ -1804,6 +1799,12 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2104,12 +2105,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3622,94 +3617,94 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.4140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="62" customWidth="1"/>
     <col min="4" max="4" width="12" style="62" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="11.9140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="62" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" customWidth="1"/>
-    <col min="8" max="8" width="10.9140625" style="62" customWidth="1"/>
-    <col min="9" max="10" width="7.4140625" style="62" customWidth="1"/>
-    <col min="11" max="16384" width="10.9140625" style="62"/>
+    <col min="8" max="8" width="10.8984375" style="62" customWidth="1"/>
+    <col min="9" max="10" width="7.3984375" style="62" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="G1" s="63" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I1" s="63" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="62" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
+      <c r="A3" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
+      <c r="A4" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="A5" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
+      <c r="A6" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="65"/>
@@ -3719,7 +3714,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.75" customHeight="1">
@@ -3738,42 +3733,42 @@
       <c r="A11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="69" customHeight="1">
-      <c r="A12" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1">
       <c r="A13" s="77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+        <v>68</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="77">
@@ -3783,11 +3778,11 @@
       <c r="C14" s="73"/>
       <c r="D14" s="64"/>
       <c r="E14" s="70"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="77">
@@ -3881,11 +3876,11 @@
       <c r="C21" s="73"/>
       <c r="D21" s="64"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1">
       <c r="A22" s="77">
@@ -3923,11 +3918,11 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="70"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="77">
@@ -3993,866 +3988,866 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="70"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.4" customHeight="1">
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="96"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.35" customHeight="1">
       <c r="A31" s="62" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="97"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="99"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="102"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="100"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="102"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="100"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="102"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="102"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="98"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="100"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="98"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="100"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="98"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="102"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="98"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="100"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="102"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="98"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="98"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="100"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="102"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="98"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="102"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="98"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="100"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="102"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="98"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="100"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="98"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="100"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="98"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="98"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="100"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="98"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="100"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="103"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.4" customHeight="1">
+      <c r="A54" s="103"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="105"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.35" customHeight="1">
       <c r="A56" s="62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="97"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="99"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="98"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="100"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="102"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="98"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="100"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="102"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="100"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="98"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="102"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="98"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="100"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="102"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="98"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="100"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="102"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="98"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="100"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="102"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="98"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="100"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="102"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="98"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="100"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="102"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="98"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="100"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="102"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="98"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="100"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="102"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="98"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="99"/>
-      <c r="J69" s="100"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="102"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="98"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="100"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="102"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="98"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="100"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="102"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="98"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="100"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+      <c r="J72" s="102"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="98"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="100"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
+      <c r="J73" s="102"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="98"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="102"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="98"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="100"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="101"/>
+      <c r="I75" s="101"/>
+      <c r="J75" s="102"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="98"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="100"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
+      <c r="J76" s="102"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="98"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="100"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="102"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="100"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="101"/>
+      <c r="J78" s="102"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="98"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="100"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="102"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="101"/>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="102"/>
-      <c r="I80" s="102"/>
-      <c r="J80" s="103"/>
+      <c r="A80" s="103"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="105"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="95"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="97"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="99"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="98"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="99"/>
-      <c r="G85" s="99"/>
-      <c r="H85" s="99"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="100"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="101"/>
+      <c r="I85" s="101"/>
+      <c r="J85" s="102"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
-      <c r="H86" s="99"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="100"/>
+      <c r="A86" s="100"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="102"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="98"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="99"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="100"/>
+      <c r="A87" s="100"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="101"/>
+      <c r="I87" s="101"/>
+      <c r="J87" s="102"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="98"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="100"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="102"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="98"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="100"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="102"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="98"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="100"/>
+      <c r="A90" s="100"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="102"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="98"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="100"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="102"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="98"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="99"/>
-      <c r="H92" s="99"/>
-      <c r="I92" s="99"/>
-      <c r="J92" s="100"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101"/>
+      <c r="I92" s="101"/>
+      <c r="J92" s="102"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="99"/>
-      <c r="H93" s="99"/>
-      <c r="I93" s="99"/>
-      <c r="J93" s="100"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="102"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="98"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="99"/>
-      <c r="J94" s="100"/>
+      <c r="A94" s="100"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="102"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="98"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="100"/>
+      <c r="A95" s="100"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="101"/>
+      <c r="I95" s="101"/>
+      <c r="J95" s="102"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="98"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="100"/>
+      <c r="A96" s="100"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="101"/>
+      <c r="I96" s="101"/>
+      <c r="J96" s="102"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="98"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="100"/>
+      <c r="A97" s="100"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="102"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="98"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="99"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="99"/>
-      <c r="H98" s="99"/>
-      <c r="I98" s="99"/>
-      <c r="J98" s="100"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="102"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="98"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="100"/>
+      <c r="A99" s="100"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="101"/>
+      <c r="I99" s="101"/>
+      <c r="J99" s="102"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="98"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
-      <c r="J100" s="100"/>
+      <c r="A100" s="100"/>
+      <c r="B100" s="101"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="102"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="98"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="100"/>
+      <c r="A101" s="100"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="101"/>
+      <c r="I101" s="101"/>
+      <c r="J101" s="102"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="98"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="99"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="100"/>
+      <c r="A102" s="100"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="101"/>
+      <c r="H102" s="101"/>
+      <c r="I102" s="101"/>
+      <c r="J102" s="102"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="98"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="100"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="101"/>
+      <c r="I103" s="101"/>
+      <c r="J103" s="102"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="98"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="100"/>
+      <c r="A104" s="100"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="101"/>
+      <c r="J104" s="102"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="98"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="100"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="101"/>
+      <c r="J105" s="102"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="101"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="102"/>
-      <c r="I106" s="102"/>
-      <c r="J106" s="103"/>
+      <c r="A106" s="103"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="104"/>
+      <c r="F106" s="104"/>
+      <c r="G106" s="104"/>
+      <c r="H106" s="104"/>
+      <c r="I106" s="104"/>
+      <c r="J106" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4888,20 +4883,20 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.08203125" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="14" width="8.59765625" customWidth="1"/>
+    <col min="15" max="15" width="17.3984375" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4910,7 +4905,7 @@
         <v>2023</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="42"/>
@@ -4936,118 +4931,118 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
-    </row>
-    <row r="3" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
-    </row>
-    <row r="4" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A4" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="110"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A5" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="110"/>
-    </row>
-    <row r="6" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="A2" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
+    </row>
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="128"/>
+    </row>
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="112"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="112"/>
+    </row>
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -5073,123 +5068,123 @@
       <c r="W6" s="39"/>
       <c r="X6" s="40"/>
     </row>
-    <row r="7" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A7" s="111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="113"/>
+    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="118" t="s">
+      <c r="A8" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="114" t="s">
+      <c r="E8" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="146" t="s">
+      <c r="P8" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="146" t="s">
+      <c r="R8" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="X8" s="130" t="s">
-        <v>23</v>
+      <c r="X8" s="132" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="152" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="122"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="124"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="122"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="71"/>
       <c r="F10" s="11"/>
       <c r="G10" s="71"/>
@@ -5200,22 +5195,22 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="122"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="124"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="72"/>
       <c r="F11" s="13"/>
       <c r="G11" s="72"/>
@@ -5226,18 +5221,18 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="123"/>
-    </row>
-    <row r="12" spans="1:24" ht="20.149999999999999" customHeight="1">
+      <c r="O11" s="116"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="125"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="82">
         <v>45017</v>
       </c>
@@ -5273,11 +5268,11 @@
         <v>122</v>
       </c>
       <c r="S12" s="46">
-        <f t="shared" ref="S12:S26" si="1">IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),DATE(年,11,30),"d")+1,IF(AND($A12&gt;DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,11,30)),DATEDIF($A12,DATE(年,11,30),"d")+1,IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <f>IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),DATE(年,11,30),"d")+1,IF(AND($A12&gt;DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,11,30)),DATEDIF($A12,DATE(年,11,30),"d")+1,IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
         <v>122</v>
       </c>
       <c r="T12" s="46">
-        <f t="shared" ref="T12:T26" si="2">IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A12&gt;DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年+1,3,31)),DATEDIF($A12,DATE(年+1,3,31),"d")+1,IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <f>IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A12&gt;DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年+1,3,31)),DATEDIF($A12,DATE(年+1,3,31),"d")+1,IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
         <v>122</v>
       </c>
       <c r="U12" s="55" t="str">
@@ -5285,19 +5280,19 @@
         <v/>
       </c>
       <c r="V12" s="55" t="str">
-        <f t="shared" ref="V12" si="3">IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))</f>
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))</f>
         <v/>
       </c>
       <c r="W12" s="61" t="str">
-        <f t="shared" ref="W12" si="4">IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))</f>
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))</f>
         <v/>
       </c>
       <c r="X12" s="15" t="str">
-        <f t="shared" ref="X12:X26" si="5">IF(O12="","",SUM(U12:W12))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" ref="X12:X26" si="1">IF(O12="","",SUM(U12:W12))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
       <c r="C13" s="4"/>
@@ -5317,11 +5312,11 @@
         <v/>
       </c>
       <c r="P13" s="52" t="str">
-        <f t="shared" ref="P13:P26" si="6">C13&amp;D13</f>
+        <f t="shared" ref="P13:P26" si="2">C13&amp;D13</f>
         <v/>
       </c>
       <c r="Q13" s="46">
-        <f t="shared" ref="Q13:Q26" si="7">SUM(E13:N13)</f>
+        <f t="shared" ref="Q13:Q26" si="3">SUM(E13:N13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="46">
@@ -5329,11 +5324,11 @@
         <v>0</v>
       </c>
       <c r="S13" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S13:S26" si="4">IF(AND($A13&lt;=DATE(年,8,1),$B13&gt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),DATE(年,11,30),"d")+1,IF(AND($A13&gt;DATE(年,8,1),$A13&lt;=DATE(年,11,30),$B13&gt;=DATE(年,11,30)),DATEDIF($A13,DATE(年,11,30),"d")+1,IF(AND($A13&lt;=DATE(年,8,1),$B13&gt;=DATE(年,8,1),$B13&lt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),$B13,"d")+1,IF(AND($A13&gt;=DATE(年,8,1),$A13&lt;=DATE(年,11,30),$B13&gt;=DATE(年,8,1),$B13&lt;=DATE(年,11,30)),DATEDIF($A13,$B13,"d")+1,0))))</f>
         <v>0</v>
       </c>
       <c r="T13" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T13:T26" si="5">IF(AND($A13&lt;=DATE(年,12,1),$B13&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A13&gt;DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),$B13&gt;=DATE(年+1,3,31)),DATEDIF($A13,DATE(年+1,3,31),"d")+1,IF(AND($A13&lt;=DATE(年,12,1),$B13&gt;=DATE(年,12,1),$B13&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B13,"d")+1,IF(AND(A13&gt;=DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),$B13&gt;=DATE(年,12,1),$B13&lt;=DATE(年+1,3,31)),DATEDIF($A13,$B13,"d")+1,0))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="55" t="str">
@@ -5349,13 +5344,13 @@
         <v/>
       </c>
       <c r="X13" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="25"/>
@@ -5373,11 +5368,11 @@
         <v/>
       </c>
       <c r="P14" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14" s="46">
@@ -5385,11 +5380,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="55" t="str">
@@ -5405,11 +5400,11 @@
         <v/>
       </c>
       <c r="X14" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="78"/>
       <c r="C15" s="4"/>
@@ -5429,11 +5424,11 @@
         <v/>
       </c>
       <c r="P15" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q15" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="46">
@@ -5441,11 +5436,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15" s="55" t="str">
@@ -5461,11 +5456,11 @@
         <v/>
       </c>
       <c r="X15" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="78"/>
       <c r="C16" s="3"/>
@@ -5485,11 +5480,11 @@
         <v/>
       </c>
       <c r="P16" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="46">
@@ -5497,11 +5492,11 @@
         <v>0</v>
       </c>
       <c r="S16" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="55" t="str">
@@ -5517,11 +5512,11 @@
         <v/>
       </c>
       <c r="X16" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="78"/>
       <c r="C17" s="4"/>
@@ -5541,11 +5536,11 @@
         <v/>
       </c>
       <c r="P17" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q17" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R17" s="46">
@@ -5553,11 +5548,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="55" t="str">
@@ -5573,11 +5568,11 @@
         <v/>
       </c>
       <c r="X17" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="78"/>
       <c r="C18" s="4"/>
@@ -5597,11 +5592,11 @@
         <v/>
       </c>
       <c r="P18" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R18" s="46">
@@ -5609,11 +5604,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U18" s="55" t="str">
@@ -5629,11 +5624,11 @@
         <v/>
       </c>
       <c r="X18" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="78"/>
       <c r="C19" s="4"/>
@@ -5653,11 +5648,11 @@
         <v/>
       </c>
       <c r="P19" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q19" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19" s="46">
@@ -5665,11 +5660,11 @@
         <v>0</v>
       </c>
       <c r="S19" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="55" t="str">
@@ -5685,11 +5680,11 @@
         <v/>
       </c>
       <c r="X19" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="78"/>
       <c r="C20" s="4"/>
@@ -5709,11 +5704,11 @@
         <v/>
       </c>
       <c r="P20" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R20" s="46">
@@ -5721,11 +5716,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="55" t="str">
@@ -5741,11 +5736,11 @@
         <v/>
       </c>
       <c r="X20" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="78"/>
       <c r="C21" s="4"/>
@@ -5765,11 +5760,11 @@
         <v/>
       </c>
       <c r="P21" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q21" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" s="46">
@@ -5777,11 +5772,11 @@
         <v>0</v>
       </c>
       <c r="S21" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T21" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U21" s="55" t="str">
@@ -5797,11 +5792,11 @@
         <v/>
       </c>
       <c r="X21" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="78"/>
       <c r="C22" s="4"/>
@@ -5821,11 +5816,11 @@
         <v/>
       </c>
       <c r="P22" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R22" s="46">
@@ -5833,11 +5828,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T22" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22" s="55" t="str">
@@ -5853,11 +5848,11 @@
         <v/>
       </c>
       <c r="X22" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="78"/>
       <c r="C23" s="4"/>
@@ -5877,11 +5872,11 @@
         <v/>
       </c>
       <c r="P23" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q23" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R23" s="46">
@@ -5889,11 +5884,11 @@
         <v>0</v>
       </c>
       <c r="S23" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23" s="55" t="str">
@@ -5909,11 +5904,11 @@
         <v/>
       </c>
       <c r="X23" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="78"/>
       <c r="C24" s="4"/>
@@ -5933,11 +5928,11 @@
         <v/>
       </c>
       <c r="P24" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24" s="46">
@@ -5945,11 +5940,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T24" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U24" s="55" t="str">
@@ -5965,11 +5960,11 @@
         <v/>
       </c>
       <c r="X24" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="20.149999999999999" customHeight="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="78"/>
       <c r="C25" s="3"/>
@@ -5989,11 +5984,11 @@
         <v/>
       </c>
       <c r="P25" s="52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q25" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="46">
@@ -6001,11 +5996,11 @@
         <v>0</v>
       </c>
       <c r="S25" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T25" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U25" s="55" t="str">
@@ -6021,11 +6016,11 @@
         <v/>
       </c>
       <c r="X25" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="20.149999999999999" customHeight="1" thickBot="1">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="79"/>
       <c r="B26" s="79"/>
       <c r="C26" s="8"/>
@@ -6045,11 +6040,11 @@
         <v/>
       </c>
       <c r="P26" s="53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q26" s="49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="46">
@@ -6057,11 +6052,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T26" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U26" s="55" t="str">
@@ -6077,28 +6072,28 @@
         <v/>
       </c>
       <c r="X26" s="43" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="20.149999999999999" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="136"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="A27" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -6117,28 +6112,28 @@
         <v>0</v>
       </c>
       <c r="X27" s="60">
-        <f t="shared" ref="X27:X33" si="8">SUM(U27:W27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A28" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="133"/>
+        <f t="shared" ref="X27:X33" si="6">SUM(U27:W27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="54"/>
       <c r="U28" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
@@ -6153,28 +6148,28 @@
         <v>0</v>
       </c>
       <c r="X28" s="84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="54"/>
       <c r="U29" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$5)</f>
@@ -6189,28 +6184,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="141"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
@@ -6229,28 +6224,28 @@
         <v>0</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="157"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="159"/>
       <c r="P31" s="54"/>
       <c r="U31" s="83">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
@@ -6265,28 +6260,28 @@
         <v>0</v>
       </c>
       <c r="X31" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="139"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="141"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="46"/>
       <c r="R32" s="46"/>
@@ -6305,28 +6300,28 @@
         <v>0</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="133"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="135"/>
       <c r="P33" s="54"/>
       <c r="U33" s="2">
         <f>SUM(U12:U26)</f>
@@ -6341,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6399,27 +6394,29 @@
   </sheetPr>
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:W13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.08203125" customWidth="1"/>
-    <col min="5" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
-    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="14" width="8.59765625" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="51" customHeight="1">
       <c r="A1" s="80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="42"/>
@@ -6445,118 +6442,118 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
+      <c r="A2" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="128"/>
     </row>
     <row r="4" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A4" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
+      <c r="A4" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
     </row>
     <row r="5" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A5" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
+      <c r="A5" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
     </row>
     <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -6583,130 +6580,130 @@
       <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="A7" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="118" t="s">
+      <c r="A8" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="114" t="s">
+      <c r="E8" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="146" t="s">
+      <c r="P8" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="146" t="s">
+      <c r="R8" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="X8" s="130" t="s">
-        <v>23</v>
+      <c r="X8" s="132" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="152" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="122"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="124"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="122"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6715,30 +6712,30 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="122"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="124"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -6747,29 +6744,29 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="123"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="125"/>
     </row>
     <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B12" s="3">
-        <v>44286</v>
+        <v>45199</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E12" s="25">
         <v>20</v>
@@ -6793,53 +6790,53 @@
       </c>
       <c r="P12" s="52" t="str">
         <f>C12&amp;D12</f>
-        <v>ストレージ大規模利用_一般解析区画Quota設定のみ容量保証なし</v>
+        <v>ストレージ大規模利用_一般解析区画Quota設定のみ</v>
       </c>
       <c r="Q12" s="46">
         <f>SUM(E12:N12)</f>
         <v>90</v>
       </c>
       <c r="R12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,4,1),$B12&gt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),DATE(2020,7,31),"d")+1,IF(AND($A12&gt;DATE(2020,4,1),$A12&lt;=DATE(2020,7,31),$B12&gt;=DATE(2020,7,31)),DATEDIF($A12,DATE(2020,7,31),"d")+1,IF(AND($A12&lt;=DATE(2020,4,1),$B12&gt;=DATE(2020,4,1),$B12&lt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(2020,4,1),$A12&lt;=DATE(2020,7,31),$B12&gt;=DATE(2020,4,1),$B12&lt;=DATE(2020,7,31)),DATEDIF(A12,B12,"d")+1,0))))</f>
+        <f t="shared" ref="R12:R26" si="0">IF(AND($A12&lt;=DATE(年,4,1),$B12&gt;=DATE(年,7,31)),DATEDIF(DATE(年,4,1),DATE(年,7,31),"d")+1,IF(AND($A12&gt;DATE(年,4,1),$A12&lt;=DATE(年,7,31),$B12&gt;=DATE(年,7,31)),DATEDIF($A12,DATE(年,7,31),"d")+1,IF(AND($A12&lt;=DATE(年,4,1),$B12&gt;=DATE(年,4,1),$B12&lt;=DATE(年,7,31)),DATEDIF(DATE(年,4,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31),$B12&gt;=DATE(年,4,1),$B12&lt;=DATE(年,7,31)),DATEDIF(A12,B12,"d")+1,0))))</f>
         <v>122</v>
       </c>
       <c r="S12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,8,1),$B12&gt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),DATE(2020,11,30),"d")+1,IF(AND($A12&gt;DATE(2020,8,1),$A12&lt;=DATE(2020,11,30),$B12&gt;=DATE(2020,11,30)),DATEDIF($A12,DATE(2020,11,30),"d")+1,IF(AND($A12&lt;=DATE(2020,8,1),$B12&gt;=DATE(2020,8,1),$B12&lt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(2020,8,1),$A12&lt;=DATE(2020,11,30),$B12&gt;=DATE(2020,8,1),$B12&lt;=DATE(2020,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
-        <v>122</v>
+        <f t="shared" ref="S12:S26" si="1">IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),DATE(年,11,30),"d")+1,IF(AND($A12&gt;DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,11,30)),DATEDIF($A12,DATE(年,11,30),"d")+1,IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <v>61</v>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,12,1),$B12&gt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),DATE(2021,3,31),"d")+1,IF(AND($A12&gt;DATE(2020,12,1),$A12&lt;=DATE(2021,3,31),$B12&gt;=DATE(2021,3,31)),DATEDIF($A12,DATE(2021,3,31),"d")+1,IF(AND($A12&lt;=DATE(2020,12,1),$B12&gt;=DATE(2020,12,1),$B12&lt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(2020,12,1),$A12&lt;=DATE(2021,3,31),$B12&gt;=DATE(2020,12,1),$B12&lt;=DATE(2021,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
-        <v>121</v>
-      </c>
-      <c r="U12" s="55" t="e">
-        <f t="shared" ref="U12" si="0">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(R12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R12/365)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(R12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(R12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*R12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*R12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*R12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*R12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V12" s="55" t="e">
-        <f t="shared" ref="V12" si="1">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S12/年間日数)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(S12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W12" s="61" t="e">
-        <f t="shared" ref="W12" si="2">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T12/年間日数)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(T12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X12" s="15" t="e">
+        <f t="shared" ref="T12:T26" si="2">IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A12&gt;DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年+1,3,31)),DATEDIF($A12,DATE(年+1,3,31),"d")+1,IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="55">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(R12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*R12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*R12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*R12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*R12/30)*消費税,0),""))))))))</f>
+        <v>91667</v>
+      </c>
+      <c r="V12" s="55">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))</f>
+        <v>45834</v>
+      </c>
+      <c r="W12" s="61">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
         <f t="shared" ref="X12:X26" si="3">IF(O12="","",SUM(U12:W12))</f>
-        <v>#NAME?</v>
+        <v>137501</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.9" customHeight="1">
       <c r="A13" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B13" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E13" s="25">
         <v>20</v>
@@ -6863,53 +6860,53 @@
       </c>
       <c r="P13" s="52" t="str">
         <f t="shared" ref="P13:P26" si="4">C13&amp;D13</f>
-        <v>ストレージ大規模利用_一般解析区画高速ストレージ容量保証</v>
+        <v>ストレージ大規模利用_一般解析区画Quota設定のみ</v>
       </c>
       <c r="Q13" s="46">
         <f t="shared" ref="Q13:Q26" si="5">SUM(E13:N13)</f>
         <v>90</v>
       </c>
       <c r="R13" s="46">
-        <f t="shared" ref="R13:R26" si="6">IF(AND($A13&lt;=DATE(2020,4,1),$B13&gt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),DATE(2020,7,31),"d")+1,IF(AND($A13&gt;DATE(2020,4,1),$A13&lt;=DATE(2020,7,31),$B13&gt;=DATE(2020,7,31)),DATEDIF($A13,DATE(2020,7,31),"d")+1,IF(AND($A13&lt;=DATE(2020,4,1),$B13&gt;=DATE(2020,4,1),$B13&lt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),$B13,"d")+1,IF(AND($A13&gt;=DATE(2020,4,1),$A13&lt;=DATE(2020,7,31),$B13&gt;=DATE(2020,4,1),$B13&lt;=DATE(2020,7,31)),DATEDIF(A13,B13,"d")+1,0))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="46">
-        <f t="shared" ref="S13:S26" si="7">IF(AND($A13&lt;=DATE(2020,8,1),$B13&gt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),DATE(2020,11,30),"d")+1,IF(AND($A13&gt;DATE(2020,8,1),$A13&lt;=DATE(2020,11,30),$B13&gt;=DATE(2020,11,30)),DATEDIF($A13,DATE(2020,11,30),"d")+1,IF(AND($A13&lt;=DATE(2020,8,1),$B13&gt;=DATE(2020,8,1),$B13&lt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),$B13,"d")+1,IF(AND($A13&gt;=DATE(2020,8,1),$A13&lt;=DATE(2020,11,30),$B13&gt;=DATE(2020,8,1),$B13&lt;=DATE(2020,11,30)),DATEDIF($A13,$B13,"d")+1,0))))</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="T13" s="46">
-        <f t="shared" ref="T13:T26" si="8">IF(AND($A13&lt;=DATE(2020,12,1),$B13&gt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),DATE(2021,3,31),"d")+1,IF(AND($A13&gt;DATE(2020,12,1),$A13&lt;=DATE(2021,3,31),$B13&gt;=DATE(2021,3,31)),DATEDIF($A13,DATE(2021,3,31),"d")+1,IF(AND($A13&lt;=DATE(2020,12,1),$B13&gt;=DATE(2020,12,1),$B13&lt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),$B13,"d")+1,IF(AND(A13&gt;=DATE(2020,12,1),$A13&lt;=DATE(2021,3,31),$B13&gt;=DATE(2020,12,1),$B13&lt;=DATE(2021,3,31)),DATEDIF($A13,$B13,"d")+1,0))))</f>
-        <v>121</v>
-      </c>
-      <c r="U13" s="55" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(R13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,4,1),$A13&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R13/365)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(R13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(R13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*R13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*R13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*R13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*R13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V13" s="55" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(S13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,8,1),$A13&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,A13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S13/年間日数)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(S13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(S13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*S13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*S13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*S13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*S13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W13" s="61" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(T13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,B13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T13/年間日数)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(T13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(T13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*T13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*T13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*T13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*T13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X13" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U13" s="55">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(R13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,4,1),$A13&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*R13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*R13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*R13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*R13/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="55">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(S13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,8,1),$A13&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,A13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*S13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*S13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*S13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*S13/30)*消費税,0),""))))))))</f>
+        <v>45834</v>
+      </c>
+      <c r="W13" s="61">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(T13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,B13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*T13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*T13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*T13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*T13/30)*消費税,0),""))))))))</f>
+        <v>91667</v>
+      </c>
+      <c r="X13" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>137501</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.9" customHeight="1">
       <c r="A14" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B14" s="3">
-        <v>44286</v>
+        <v>45199</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E14" s="25">
         <v>20</v>
@@ -6933,59 +6930,59 @@
       </c>
       <c r="P14" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ容量保証なし</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="R14" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="S14" s="46">
-        <f t="shared" si="7"/>
-        <v>122</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="T14" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U14" s="55" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(R14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,4,1),$A14&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R14/365)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(R14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(R14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*R14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*R14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*R14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*R14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V14" s="55" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(S14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,8,1),$A14&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,A14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S14/年間日数)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(S14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(S14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*S14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*S14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*S14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*S14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W14" s="61" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(T14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,12,1),$A14&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,B14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T14/年間日数)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(T14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(T14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*T14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*T14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*T14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*T14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X14" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="55">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(R14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,4,1),$A14&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*R14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*R14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*R14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*R14/30)*消費税,0),""))))))))</f>
+        <v>183334</v>
+      </c>
+      <c r="V14" s="55">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(S14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,8,1),$A14&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,A14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*S14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*S14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*S14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*S14/30)*消費税,0),""))))))))</f>
+        <v>45834</v>
+      </c>
+      <c r="W14" s="61">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(T14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,12,1),$A14&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,B14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*T14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*T14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*T14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*T14/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>229168</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.9" customHeight="1">
       <c r="A15" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B15" s="3">
-        <v>44286</v>
+        <v>45291</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E15" s="25">
         <v>20</v>
       </c>
       <c r="F15" s="25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G15" s="25">
         <v>40</v>
@@ -6999,63 +6996,63 @@
       <c r="N15" s="25"/>
       <c r="O15" s="34" t="str">
         <f>IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$1),CONCATENATE(SUM(E15:N15),"TB"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$2),CONCATENATE(SUM(E15:N15),"TB"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$3),CONCATENATE(SUM(E15:N15),"単位"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$4),CONCATENATE(SUM(E15:N15),"単位"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$6),CONCATENATE(SUM(E15:N15),"単位"),"")))))</f>
-        <v>90TB</v>
+        <v>100TB</v>
       </c>
       <c r="P15" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_一般解析区画アーカイブ</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q15" s="46">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R15" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="T15" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U15" s="55" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(R15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,4,1),$A15&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R15/365)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(R15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(R15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*R15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*R15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*R15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*R15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V15" s="55" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(S15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,8,1),$A15&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,A15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S15/年間日数)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(S15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(S15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*S15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*S15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*S15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*S15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W15" s="61" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(T15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,12,1),$A15&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,B15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T15/年間日数)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(T15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(T15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*T15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*T15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*T15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*T15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X15" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="U15" s="55">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(R15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,4,1),$A15&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*R15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*R15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*R15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*R15/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="55">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(S15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,8,1),$A15&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,A15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*S15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*S15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*S15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*S15/30)*消費税,0),""))))))))</f>
+        <v>50926</v>
+      </c>
+      <c r="W15" s="61">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(T15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,12,1),$A15&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,B15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*T15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*T15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*T15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*T15/30)*消費税,0),""))))))))</f>
+        <v>25881</v>
+      </c>
+      <c r="X15" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>76807</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.9" customHeight="1">
       <c r="A16" s="3">
-        <v>44105</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E16" s="25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" s="25">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G16" s="25">
         <v>40</v>
@@ -7069,57 +7066,57 @@
       <c r="N16" s="25"/>
       <c r="O16" s="34" t="str">
         <f>IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$1),CONCATENATE(SUM(E16:N16),"TB"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$2),CONCATENATE(SUM(E16:N16),"TB"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$3),CONCATENATE(SUM(E16:N16),"単位"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$4),CONCATENATE(SUM(E16:N16),"単位"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$6),CONCATENATE(SUM(E16:N16),"単位"),"")))))</f>
-        <v>90TB</v>
+        <v>110TB</v>
       </c>
       <c r="P16" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_個人ゲノム区画アーカイブ</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="R16" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16" s="46">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T16" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U16" s="55" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(R16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,4,1),$A16&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R16/365)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(R16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(R16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*R16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*R16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*R16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*R16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V16" s="55" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(S16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,8,1),$A16&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,A16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S16/年間日数)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(S16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(S16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*S16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*S16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*S16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*S16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W16" s="61" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(T16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,12,1),$A16&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,B16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T16/年間日数)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(T16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(T16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*T16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*T16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*T16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*T16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X16" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="U16" s="55">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(R16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,4,1),$A16&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*R16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*R16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*R16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*R16/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="55">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(S16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,8,1),$A16&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,A16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*S16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*S16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*S16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*S16/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="61">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(T16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,12,1),$A16&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,B16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*T16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*T16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*T16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*T16/30)*消費税,0),""))))))))</f>
+        <v>83569</v>
+      </c>
+      <c r="X16" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>83569</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.9" customHeight="1">
       <c r="A17" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B17" s="3">
-        <v>43951</v>
+        <v>45412</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="25">
         <v>2</v>
@@ -7146,46 +7143,46 @@
         <v>2</v>
       </c>
       <c r="R17" s="46">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="S17" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="T17" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="55" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(R17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,4,1),$A17&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R17/365)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(R17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(R17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*R17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*R17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*R17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*R17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V17" s="55" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(S17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,8,1),$A17&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,A17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S17/年間日数)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(S17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(S17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*S17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*S17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*S17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*S17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W17" s="61" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(T17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,12,1),$A17&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,B17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T17/年間日数)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(T17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(T17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*T17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*T17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*T17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*T17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X17" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U17" s="55">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(R17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,4,1),$A17&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*R17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*R17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*R17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*R17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="V17" s="55">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(S17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,8,1),$A17&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,A17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*S17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*S17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*S17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*S17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="W17" s="61">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(T17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,12,1),$A17&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,B17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*T17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*T17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*T17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*T17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="X17" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>782520</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.9" customHeight="1">
       <c r="A18" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="3">
-        <v>44134</v>
+        <v>45595</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="25">
         <v>2</v>
@@ -7212,46 +7209,46 @@
         <v>2</v>
       </c>
       <c r="R18" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S18" s="46">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="T18" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="55" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(R18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,4,1),$A18&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R18/365)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(R18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(R18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*R18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*R18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*R18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*R18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V18" s="55" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(S18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,8,1),$A18&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,A18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S18/年間日数)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(S18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(S18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*S18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*S18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*S18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*S18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W18" s="61" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(T18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,12,1),$A18&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,B18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T18/年間日数)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(T18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(T18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*T18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*T18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*T18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*T18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X18" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U18" s="55">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(R18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,4,1),$A18&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*R18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*R18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*R18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*R18/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="55">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(S18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,8,1),$A18&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,A18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*S18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*S18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*S18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*S18/30)*消費税,0),""))))))))</f>
+        <v>130420</v>
+      </c>
+      <c r="W18" s="61">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(T18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,12,1),$A18&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,B18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*T18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*T18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*T18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*T18/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="X18" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>391260</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.9" customHeight="1">
       <c r="A19" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B19" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="25">
         <v>2</v>
@@ -7278,46 +7275,46 @@
         <v>2</v>
       </c>
       <c r="R19" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U19" s="55" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(R19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,4,1),$A19&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R19/365)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(R19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(R19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*R19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*R19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*R19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*R19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V19" s="55" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(S19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,8,1),$A19&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,A19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S19/年間日数)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(S19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(S19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*S19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*S19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*S19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*S19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W19" s="61" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(T19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,12,1),$A19&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,B19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T19/年間日数)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(T19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(T19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*T19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*T19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*T19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*T19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X19" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U19" s="55">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(R19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,4,1),$A19&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*R19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*R19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*R19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*R19/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="55">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(S19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,8,1),$A19&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,A19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*S19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*S19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*S19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*S19/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="61">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(T19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,12,1),$A19&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,B19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*T19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*T19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*T19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*T19/30)*消費税,0),""))))))))</f>
+        <v>2103</v>
+      </c>
+      <c r="X19" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.9" customHeight="1">
       <c r="A20" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B20" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E20" s="25">
         <v>2</v>
@@ -7337,53 +7334,53 @@
       </c>
       <c r="P20" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>計算ノード占有利用_個人ゲノム区画Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 4CPUコア 48GBメモリ)</v>
+        <v>計算ノード占有利用_個人ゲノム区画Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 6CPUコア 96GBメモリ)</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="R20" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S20" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U20" s="55" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(R20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,4,1),$A20&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R20/365)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(R20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(R20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*R20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*R20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*R20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*R20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V20" s="55" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(S20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,8,1),$A20&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,A20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S20/年間日数)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(S20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(S20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*S20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*S20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*S20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*S20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W20" s="61" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(T20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,12,1),$A20&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,B20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T20/年間日数)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(T20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(T20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*T20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*T20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*T20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*T20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X20" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U20" s="55">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(R20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,4,1),$A20&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*R20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*R20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*R20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*R20/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="55">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(S20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,8,1),$A20&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,A20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*S20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*S20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*S20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*S20/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="61">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(T20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,12,1),$A20&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,B20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*T20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*T20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*T20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*T20/30)*消費税,0),""))))))))</f>
+        <v>264000</v>
+      </c>
+      <c r="X20" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>264000</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.9" customHeight="1">
       <c r="A21" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B21" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="25">
         <v>2</v>
@@ -7410,32 +7407,32 @@
         <v>2</v>
       </c>
       <c r="R21" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S21" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U21" s="55" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(R21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,4,1),$A21&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R21/365)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(R21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(R21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*R21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*R21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*R21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*R21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V21" s="55" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(S21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,8,1),$A21&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,A21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S21/年間日数)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(S21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(S21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*S21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*S21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*S21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*S21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W21" s="61" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(T21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,12,1),$A21&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,B21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T21/年間日数)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(T21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(T21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*T21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*T21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*T21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*T21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X21" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U21" s="55">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(R21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,4,1),$A21&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*R21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*R21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*R21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*R21/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="55">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(S21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,8,1),$A21&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,A21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*S21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*S21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*S21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*S21/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="61">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(T21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,12,1),$A21&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,B21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*T21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*T21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*T21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*T21/30)*消費税,0),""))))))))</f>
+        <v>136834</v>
+      </c>
+      <c r="X21" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>136834</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.9" customHeight="1">
@@ -7466,28 +7463,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="55" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(R22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,4,1),$A22&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R22/365)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(R22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(R22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*R22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*R22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*R22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*R22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V22" s="55" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(S22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,8,1),$A22&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,A22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S22/年間日数)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(S22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(S22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*S22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*S22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*S22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*S22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W22" s="61" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(T22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,12,1),$A22&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,B22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T22/年間日数)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(T22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(T22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*T22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*T22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*T22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*T22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="55" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(R22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,4,1),$A22&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*R22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*R22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*R22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*R22/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V22" s="55" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(S22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,8,1),$A22&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,A22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*S22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*S22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*S22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*S22/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W22" s="61" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(T22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,12,1),$A22&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,B22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*T22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*T22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*T22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*T22/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X22" s="15" t="str">
         <f t="shared" si="3"/>
@@ -7522,28 +7519,28 @@
         <v>0</v>
       </c>
       <c r="R23" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S23" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="55" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(R23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,4,1),$A23&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R23/365)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(R23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(R23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*R23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*R23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*R23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*R23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V23" s="55" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(S23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,8,1),$A23&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,A23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S23/年間日数)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(S23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(S23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*S23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*S23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*S23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*S23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W23" s="61" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(T23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,12,1),$A23&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,B23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T23/年間日数)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(T23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(T23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*T23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*T23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*T23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*T23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="55" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(R23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,4,1),$A23&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*R23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*R23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*R23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*R23/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V23" s="55" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(S23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,8,1),$A23&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,A23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*S23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*S23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*S23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*S23/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W23" s="61" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(T23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,12,1),$A23&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,B23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*T23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*T23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*T23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*T23/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X23" s="15" t="str">
         <f t="shared" si="3"/>
@@ -7578,28 +7575,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S24" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="55" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(R24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,4,1),$A24&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R24/365)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(R24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(R24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*R24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*R24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*R24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*R24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V24" s="55" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(S24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,8,1),$A24&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,A24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S24/年間日数)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(S24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(S24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*S24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*S24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*S24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*S24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W24" s="61" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(T24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,12,1),$A24&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,B24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T24/年間日数)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(T24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(T24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*T24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*T24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*T24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*T24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="55" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(R24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,4,1),$A24&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*R24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*R24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*R24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*R24/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V24" s="55" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(S24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,8,1),$A24&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,A24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*S24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*S24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*S24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*S24/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W24" s="61" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(T24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,12,1),$A24&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,B24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*T24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*T24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*T24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*T24/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X24" s="15" t="str">
         <f t="shared" si="3"/>
@@ -7634,28 +7631,28 @@
         <v>0</v>
       </c>
       <c r="R25" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S25" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="55" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(R25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,4,1),$A25&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R25/365)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(R25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(R25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*R25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*R25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*R25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*R25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V25" s="55" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(S25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,8,1),$A25&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,A25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S25/年間日数)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(S25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(S25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*S25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*S25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*S25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*S25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W25" s="61" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(T25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,12,1),$A25&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,B25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T25/年間日数)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(T25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(T25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*T25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*T25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*T25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*T25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="55" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(R25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,4,1),$A25&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*R25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*R25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*R25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*R25/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V25" s="55" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(S25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,8,1),$A25&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,A25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*S25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*S25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*S25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*S25/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W25" s="61" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(T25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,12,1),$A25&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,B25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*T25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*T25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*T25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*T25/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X25" s="15" t="str">
         <f t="shared" si="3"/>
@@ -7690,28 +7687,28 @@
         <v>0</v>
       </c>
       <c r="R26" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S26" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="55" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(R26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,4,1),$A26&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R26/365)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(R26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(R26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*R26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*R26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*R26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*R26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V26" s="55" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(S26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,8,1),$A26&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,A26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S26/年間日数)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(S26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(S26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*S26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*S26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*S26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*S26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W26" s="61" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(T26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,12,1),$A26&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,B26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T26/年間日数)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(T26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(T26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*T26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*T26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*T26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*T26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="55" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(R26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,4,1),$A26&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*R26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*R26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*R26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*R26/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V26" s="55" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(S26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,8,1),$A26&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,A26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*S26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*S26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*S26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*S26/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W26" s="61" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(T26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,12,1),$A26&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,B26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*T26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*T26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*T26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*T26/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X26" s="43" t="str">
         <f t="shared" si="3"/>
@@ -7719,23 +7716,23 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="136"/>
+      <c r="A27" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -7754,140 +7751,140 @@
         <v>0</v>
       </c>
       <c r="X27" s="60">
-        <f t="shared" ref="X27:X36" si="9">SUM(U27:W27)</f>
+        <f t="shared" ref="X27:X36" si="6">SUM(U27:W27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A28" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="133"/>
+      <c r="A28" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="54"/>
-      <c r="U28" s="2" t="e">
+      <c r="U28" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V28" s="2" t="e">
+        <v>260840</v>
+      </c>
+      <c r="V28" s="2">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W28" s="44" t="e">
+        <v>391260</v>
+      </c>
+      <c r="W28" s="44">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X28" s="45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>521680</v>
+      </c>
+      <c r="X28" s="45">
+        <f t="shared" si="6"/>
+        <v>1173780</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A29" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
+      <c r="A29" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
-      <c r="U29" s="1" t="e">
+      <c r="U29" s="1">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V29" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W29" s="51" t="e">
+        <v>0</v>
+      </c>
+      <c r="W29" s="51">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X29" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>402937</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="6"/>
+        <v>402937</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
+      <c r="A30" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="162"/>
       <c r="P30" s="54"/>
       <c r="U30" s="22">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>91667</v>
       </c>
       <c r="V30" s="22">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>91668</v>
       </c>
       <c r="W30" s="23">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>91667</v>
       </c>
       <c r="X30" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>275002</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A31" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="163"/>
+      <c r="A31" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="165"/>
       <c r="P31" s="54"/>
       <c r="U31" s="18">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!#REF!)</f>
@@ -7902,28 +7899,28 @@
         <v>0</v>
       </c>
       <c r="X31" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A32" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="133"/>
+      <c r="A32" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="135"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -7942,64 +7939,64 @@
         <v>0</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A33" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="166"/>
+      <c r="A33" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="168"/>
       <c r="P33" s="54"/>
       <c r="U33" s="19">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>183334</v>
       </c>
       <c r="V33" s="21">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>96760</v>
       </c>
       <c r="W33" s="20">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>109450</v>
       </c>
       <c r="X33" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>389544</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A34" s="158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="160"/>
+      <c r="A34" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="162"/>
       <c r="P34" s="54"/>
       <c r="U34" s="22">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!#REF!)</f>
@@ -8014,28 +8011,28 @@
         <v>0</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A35" s="131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="133"/>
+      <c r="A35" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="135"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -8054,44 +8051,44 @@
         <v>0</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A36" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="133"/>
+      <c r="A36" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="135"/>
       <c r="P36" s="54"/>
-      <c r="U36" s="2" t="e">
+      <c r="U36" s="2">
         <f>SUM(U12:U26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V36" s="2" t="e">
+        <v>535841</v>
+      </c>
+      <c r="V36" s="2">
         <f>SUM(V12:V26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W36" s="17" t="e">
+        <v>579688</v>
+      </c>
+      <c r="W36" s="17">
         <f>SUM(W12:W26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X36" s="16" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>1125734</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" si="6"/>
+        <v>2241263</v>
       </c>
     </row>
   </sheetData>
@@ -8152,29 +8149,31 @@
   </sheetPr>
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:X2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.08203125" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
-    <col min="16" max="20" width="8.203125E-2" customWidth="1"/>
-    <col min="21" max="23" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45.09765625" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="7" max="14" width="8.59765625" customWidth="1"/>
+    <col min="15" max="15" width="15.09765625" customWidth="1"/>
+    <col min="16" max="20" width="9.765625E-2" customWidth="1"/>
+    <col min="21" max="23" width="15.09765625" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="51" customHeight="1">
       <c r="A1" s="80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="42"/>
@@ -8200,118 +8199,118 @@
       <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:24" ht="45" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="107"/>
+      <c r="A2" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="128"/>
     </row>
     <row r="4" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A4" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
+      <c r="A4" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
     </row>
     <row r="5" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A5" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
+      <c r="A5" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
     </row>
     <row r="6" spans="1:24" ht="15.9" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -8338,127 +8337,127 @@
       <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
+      <c r="A7" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A8" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="118" t="s">
+      <c r="A8" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="114" t="s">
+      <c r="E8" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="146" t="s">
+      <c r="P8" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="146" t="s">
+      <c r="R8" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="146" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="X8" s="130" t="s">
-        <v>23</v>
+      <c r="X8" s="132" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="152" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="122"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="124"/>
     </row>
     <row r="10" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="122"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -8468,27 +8467,27 @@
       <c r="L10" s="29"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="122"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="124"/>
     </row>
     <row r="11" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -8498,29 +8497,29 @@
       <c r="L11" s="33"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="123"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="125"/>
     </row>
     <row r="12" spans="1:24" ht="15.9" customHeight="1">
       <c r="A12" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B12" s="3">
-        <v>44286</v>
+        <v>45199</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E12" s="25">
         <v>90</v>
@@ -8542,53 +8541,53 @@
       </c>
       <c r="P12" s="52" t="str">
         <f>C12&amp;D12</f>
-        <v>ストレージ大規模利用_一般解析区画Quota設定のみ容量保証なし</v>
+        <v>ストレージ大規模利用_一般解析区画Quota設定のみ</v>
       </c>
       <c r="Q12" s="46">
         <f>SUM(E12:N12)</f>
         <v>110</v>
       </c>
       <c r="R12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,4,1),$B12&gt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),DATE(2020,7,31),"d")+1,IF(AND($A12&gt;DATE(2020,4,1),$A12&lt;=DATE(2020,7,31),$B12&gt;=DATE(2020,7,31)),DATEDIF($A12,DATE(2020,7,31),"d")+1,IF(AND($A12&lt;=DATE(2020,4,1),$B12&gt;=DATE(2020,4,1),$B12&lt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(2020,4,1),$A12&lt;=DATE(2020,7,31),$B12&gt;=DATE(2020,4,1),$B12&lt;=DATE(2020,7,31)),DATEDIF(A12,B12,"d")+1,0))))</f>
+        <f t="shared" ref="R12:R26" si="0">IF(AND($A12&lt;=DATE(年,4,1),$B12&gt;=DATE(年,7,31)),DATEDIF(DATE(年,4,1),DATE(年,7,31),"d")+1,IF(AND($A12&gt;DATE(年,4,1),$A12&lt;=DATE(年,7,31),$B12&gt;=DATE(年,7,31)),DATEDIF($A12,DATE(年,7,31),"d")+1,IF(AND($A12&lt;=DATE(年,4,1),$B12&gt;=DATE(年,4,1),$B12&lt;=DATE(年,7,31)),DATEDIF(DATE(年,4,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31),$B12&gt;=DATE(年,4,1),$B12&lt;=DATE(年,7,31)),DATEDIF(A12,B12,"d")+1,0))))</f>
         <v>122</v>
       </c>
       <c r="S12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,8,1),$B12&gt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),DATE(2020,11,30),"d")+1,IF(AND($A12&gt;DATE(2020,8,1),$A12&lt;=DATE(2020,11,30),$B12&gt;=DATE(2020,11,30)),DATEDIF($A12,DATE(2020,11,30),"d")+1,IF(AND($A12&lt;=DATE(2020,8,1),$B12&gt;=DATE(2020,8,1),$B12&lt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(2020,8,1),$A12&lt;=DATE(2020,11,30),$B12&gt;=DATE(2020,8,1),$B12&lt;=DATE(2020,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
-        <v>122</v>
+        <f t="shared" ref="S12:S26" si="1">IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),DATE(年,11,30),"d")+1,IF(AND($A12&gt;DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,11,30)),DATEDIF($A12,DATE(年,11,30),"d")+1,IF(AND($A12&lt;=DATE(年,8,1),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF(DATE(年,8,1),$B12,"d")+1,IF(AND($A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30),$B12&gt;=DATE(年,8,1),$B12&lt;=DATE(年,11,30)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <v>61</v>
       </c>
       <c r="T12" s="46">
-        <f>IF(AND($A12&lt;=DATE(2020,12,1),$B12&gt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),DATE(2021,3,31),"d")+1,IF(AND($A12&gt;DATE(2020,12,1),$A12&lt;=DATE(2021,3,31),$B12&gt;=DATE(2021,3,31)),DATEDIF($A12,DATE(2021,3,31),"d")+1,IF(AND($A12&lt;=DATE(2020,12,1),$B12&gt;=DATE(2020,12,1),$B12&lt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(2020,12,1),$A12&lt;=DATE(2021,3,31),$B12&gt;=DATE(2020,12,1),$B12&lt;=DATE(2021,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
-        <v>121</v>
-      </c>
-      <c r="U12" s="55" t="e">
-        <f t="shared" ref="U12" si="0">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(R12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R12/365)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(R12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(R12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*R12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*R12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*R12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*R12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V12" s="55" t="e">
-        <f t="shared" ref="V12" si="1">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S12/年間日数)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(S12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W12" s="61" t="e">
-        <f t="shared" ref="W12" si="2">IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ1,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ1単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ1,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T12/年間日数)*消費税,0),IF($D12=ストレージ容量保証,ROUND(ROUNDUP($Q12/10,0)*ストレージ容量保証単価*(T12/年間日数)*消費税,0),IF($D12=アーカイブ,ROUND(ROUNDUP($Q12/10,0)*アーカイブ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X12" s="15" t="e">
+        <f t="shared" ref="T12:T26" si="2">IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),DATE(年+1,3,31),"d")+1,IF(AND($A12&gt;DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年+1,3,31)),DATEDIF($A12,DATE(年+1,3,31),"d")+1,IF(AND($A12&lt;=DATE(年,12,1),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF(DATE(年,12,1),$B12,"d")+1,IF(AND(A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31),$B12&gt;=DATE(年,12,1),$B12&lt;=DATE(年+1,3,31)),DATEDIF($A12,$B12,"d")+1,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="55">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(R12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,4,1),$A12&lt;=DATE(年,7,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*R12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*R12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*R12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*R12/30)*消費税,0),""))))))))</f>
+        <v>112038</v>
+      </c>
+      <c r="V12" s="55">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(S12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,8,1),$A12&lt;=DATE(年,11,30)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,A12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*S12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*S12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*S12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*S12/30)*消費税,0),""))))))))</f>
+        <v>56019</v>
+      </c>
+      <c r="W12" s="61">
+        <f>IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&lt;=30),0,IF(AND($P12=ストレージ一般解析Quota設定のみ,$Q12&gt;30),ROUND(ROUNDUP($Q12/10,0)*ストレージ一般解析Quota設定のみ単価*(T12/年間日数)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,$A12&gt;=DATE(年,12,1),$A12&lt;=DATE(年+1,3,31)),ROUND((ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P12=ストレージ個人ゲノムQuota設定のみ,B12),ROUND(ROUNDUP($Q12/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T12/年間日数)*消費税,0),IF(OR($D12=ThinAMD一般解析,$D12=ThinAMD個人ゲノム,$D12=ThinIntel),ROUND(($Q12*ThinAMD単価*T12/30)*消費税,0),IF($D12=ThinIntelGPU,ROUND(($Q12*ThinIntelGPU単価*T12/30)*消費税,0),IF($D12=Medium,ROUND(($Q12*Medium単価*T12/30)*消費税,0),IF($D12=Fat,ROUND(($Q12*Fat単価*T12/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
         <f t="shared" ref="X12:X26" si="3">IF(O12="","",SUM(U12:W12))</f>
-        <v>#NAME?</v>
+        <v>168057</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.9" customHeight="1">
       <c r="A13" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B13" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E13" s="25">
         <v>90</v>
@@ -8610,53 +8609,53 @@
       </c>
       <c r="P13" s="52" t="str">
         <f t="shared" ref="P13:P26" si="4">C13&amp;D13</f>
-        <v>ストレージ大規模利用_一般解析区画高速ストレージ容量保証</v>
+        <v>ストレージ大規模利用_一般解析区画Quota設定のみ</v>
       </c>
       <c r="Q13" s="46">
         <f t="shared" ref="Q13:Q26" si="5">SUM(E13:N13)</f>
         <v>120</v>
       </c>
       <c r="R13" s="46">
-        <f t="shared" ref="R13:R26" si="6">IF(AND($A13&lt;=DATE(2020,4,1),$B13&gt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),DATE(2020,7,31),"d")+1,IF(AND($A13&gt;DATE(2020,4,1),$A13&lt;=DATE(2020,7,31),$B13&gt;=DATE(2020,7,31)),DATEDIF($A13,DATE(2020,7,31),"d")+1,IF(AND($A13&lt;=DATE(2020,4,1),$B13&gt;=DATE(2020,4,1),$B13&lt;=DATE(2020,7,31)),DATEDIF(DATE(2020,4,1),$B13,"d")+1,IF(AND($A13&gt;=DATE(2020,4,1),$A13&lt;=DATE(2020,7,31),$B13&gt;=DATE(2020,4,1),$B13&lt;=DATE(2020,7,31)),DATEDIF(A13,B13,"d")+1,0))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="46">
-        <f t="shared" ref="S13:S26" si="7">IF(AND($A13&lt;=DATE(2020,8,1),$B13&gt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),DATE(2020,11,30),"d")+1,IF(AND($A13&gt;DATE(2020,8,1),$A13&lt;=DATE(2020,11,30),$B13&gt;=DATE(2020,11,30)),DATEDIF($A13,DATE(2020,11,30),"d")+1,IF(AND($A13&lt;=DATE(2020,8,1),$B13&gt;=DATE(2020,8,1),$B13&lt;=DATE(2020,11,30)),DATEDIF(DATE(2020,8,1),$B13,"d")+1,IF(AND($A13&gt;=DATE(2020,8,1),$A13&lt;=DATE(2020,11,30),$B13&gt;=DATE(2020,8,1),$B13&lt;=DATE(2020,11,30)),DATEDIF($A13,$B13,"d")+1,0))))</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="T13" s="46">
-        <f t="shared" ref="T13:T26" si="8">IF(AND($A13&lt;=DATE(2020,12,1),$B13&gt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),DATE(2021,3,31),"d")+1,IF(AND($A13&gt;DATE(2020,12,1),$A13&lt;=DATE(2021,3,31),$B13&gt;=DATE(2021,3,31)),DATEDIF($A13,DATE(2021,3,31),"d")+1,IF(AND($A13&lt;=DATE(2020,12,1),$B13&gt;=DATE(2020,12,1),$B13&lt;=DATE(2021,3,31)),DATEDIF(DATE(2020,12,1),$B13,"d")+1,IF(AND(A13&gt;=DATE(2020,12,1),$A13&lt;=DATE(2021,3,31),$B13&gt;=DATE(2020,12,1),$B13&lt;=DATE(2021,3,31)),DATEDIF($A13,$B13,"d")+1,0))))</f>
-        <v>121</v>
-      </c>
-      <c r="U13" s="55" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(R13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,4,1),$A13&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R13/365)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(R13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(R13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*R13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*R13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*R13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*R13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V13" s="55" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(S13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,8,1),$A13&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,A13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S13/年間日数)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(S13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(S13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*S13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*S13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*S13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*S13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W13" s="61" t="e">
-        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ1,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ1単価*(T13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,$A13&gt;=DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T13/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ1,B13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T13/年間日数)*消費税,0),IF($D13=ストレージ容量保証,ROUND(ROUNDUP($Q13/10,0)*ストレージ容量保証単価*(T13/年間日数)*消費税,0),IF($D13=アーカイブ,ROUND(ROUNDUP($Q13/10,0)*アーカイブ単価*(T13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*T13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*T13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*T13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*T13/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X13" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U13" s="55">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(R13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,4,1),$A13&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*R13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*R13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*R13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*R13/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="55">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(S13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,8,1),$A13&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,A13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*S13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*S13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*S13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*S13/30)*消費税,0),""))))))))</f>
+        <v>61112</v>
+      </c>
+      <c r="W13" s="61">
+        <f>IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&lt;=30),0,IF(AND($P13=ストレージ一般解析Quota設定のみ,$Q13&gt;30),ROUND(ROUNDUP($Q13/10,0)*ストレージ一般解析Quota設定のみ単価*(T13/年間日数)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,$A13&gt;=DATE(年,12,1),$A13&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P12,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T13/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P13=ストレージ個人ゲノムQuota設定のみ,B13),ROUND(ROUNDUP($Q13/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T13/年間日数)*消費税,0),IF(OR($D13=ThinAMD一般解析,$D13=ThinAMD個人ゲノム,$D13=ThinIntel),ROUND(($Q13*ThinAMD単価*T13/30)*消費税,0),IF($D13=ThinIntelGPU,ROUND(($Q13*ThinIntelGPU単価*T13/30)*消費税,0),IF($D13=Medium,ROUND(($Q13*Medium単価*T13/30)*消費税,0),IF($D13=Fat,ROUND(($Q13*Fat単価*T13/30)*消費税,0),""))))))))</f>
+        <v>122223</v>
+      </c>
+      <c r="X13" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>183335</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.9" customHeight="1">
       <c r="A14" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B14" s="3">
-        <v>44286</v>
+        <v>45199</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E14" s="25">
         <v>90</v>
@@ -8676,56 +8675,56 @@
       </c>
       <c r="P14" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ容量保証なし</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="R14" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="S14" s="46">
-        <f t="shared" si="7"/>
-        <v>122</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="T14" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U14" s="55" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(R14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,4,1),$A14&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R14/365)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(R14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(R14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*R14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*R14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*R14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*R14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V14" s="55" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(S14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,8,1),$A14&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,A14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S14/年間日数)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(S14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(S14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*S14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*S14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*S14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*S14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W14" s="61" t="e">
-        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ1,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ1単価*(T14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,$A14&gt;=DATE(年,12,1),$A14&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T14/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ1,B14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T14/年間日数)*消費税,0),IF($D14=ストレージ容量保証,ROUND(ROUNDUP($Q14/10,0)*ストレージ容量保証単価*(T14/年間日数)*消費税,0),IF($D14=アーカイブ,ROUND(ROUNDUP($Q14/10,0)*アーカイブ単価*(T14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*T14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*T14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*T14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*T14/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X14" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="55">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(R14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,4,1),$A14&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*R14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*R14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*R14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*R14/30)*消費税,0),""))))))))</f>
+        <v>183334</v>
+      </c>
+      <c r="V14" s="55">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(S14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,8,1),$A14&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,A14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*S14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*S14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*S14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*S14/30)*消費税,0),""))))))))</f>
+        <v>45834</v>
+      </c>
+      <c r="W14" s="61">
+        <f>IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&lt;=30),0,IF(AND($P14=ストレージ一般解析Quota設定のみ,$Q14&gt;30),ROUND(ROUNDUP($Q14/10,0)*ストレージ一般解析Quota設定のみ単価*(T14/年間日数)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,$A14&gt;=DATE(年,12,1),$A14&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P13,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T14/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P14=ストレージ個人ゲノムQuota設定のみ,B14),ROUND(ROUNDUP($Q14/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T14/年間日数)*消費税,0),IF(OR($D14=ThinAMD一般解析,$D14=ThinAMD個人ゲノム,$D14=ThinIntel),ROUND(($Q14*ThinAMD単価*T14/30)*消費税,0),IF($D14=ThinIntelGPU,ROUND(($Q14*ThinIntelGPU単価*T14/30)*消費税,0),IF($D14=Medium,ROUND(($Q14*Medium単価*T14/30)*消費税,0),IF($D14=Fat,ROUND(($Q14*Fat単価*T14/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>229168</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.9" customHeight="1">
       <c r="A15" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B15" s="3">
-        <v>44286</v>
+        <v>45291</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E15" s="25">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -8738,60 +8737,60 @@
       <c r="N15" s="25"/>
       <c r="O15" s="34" t="str">
         <f>IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$1),CONCATENATE(SUM(E15:N15),"TB"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$2),CONCATENATE(SUM(E15:N15),"TB"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$3),CONCATENATE(SUM(E15:N15),"単位"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$4),CONCATENATE(SUM(E15:N15),"単位"),IF(AND(SUM(E15:N15)&gt;0,C15=Sheet1!$A$6),CONCATENATE(SUM(E15:N15),"単位"),"")))))</f>
-        <v>90TB</v>
+        <v>100TB</v>
       </c>
       <c r="P15" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_一般解析区画アーカイブ</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q15" s="46">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R15" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S15" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="T15" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U15" s="55" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(R15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,4,1),$A15&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R15/365)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(R15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(R15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*R15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*R15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*R15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*R15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V15" s="55" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(S15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,8,1),$A15&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,A15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S15/年間日数)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(S15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(S15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*S15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*S15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*S15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*S15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W15" s="61" t="e">
-        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ1,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ1単価*(T15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,$A15&gt;=DATE(年,12,1),$A15&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T15/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ1,B15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T15/年間日数)*消費税,0),IF($D15=ストレージ容量保証,ROUND(ROUNDUP($Q15/10,0)*ストレージ容量保証単価*(T15/年間日数)*消費税,0),IF($D15=アーカイブ,ROUND(ROUNDUP($Q15/10,0)*アーカイブ単価*(T15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*T15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*T15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*T15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*T15/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X15" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="U15" s="55">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(R15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,4,1),$A15&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*R15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*R15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*R15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*R15/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="55">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(S15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,8,1),$A15&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,A15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*S15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*S15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*S15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*S15/30)*消費税,0),""))))))))</f>
+        <v>50926</v>
+      </c>
+      <c r="W15" s="61">
+        <f>IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&lt;=30),0,IF(AND($P15=ストレージ一般解析Quota設定のみ,$Q15&gt;30),ROUND(ROUNDUP($Q15/10,0)*ストレージ一般解析Quota設定のみ単価*(T15/年間日数)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,$A15&gt;=DATE(年,12,1),$A15&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P14,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T15/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P15=ストレージ個人ゲノムQuota設定のみ,B15),ROUND(ROUNDUP($Q15/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T15/年間日数)*消費税,0),IF(OR($D15=ThinAMD一般解析,$D15=ThinAMD個人ゲノム,$D15=ThinIntel),ROUND(($Q15*ThinAMD単価*T15/30)*消費税,0),IF($D15=ThinIntelGPU,ROUND(($Q15*ThinIntelGPU単価*T15/30)*消費税,0),IF($D15=Medium,ROUND(($Q15*Medium単価*T15/30)*消費税,0),IF($D15=Fat,ROUND(($Q15*Fat単価*T15/30)*消費税,0),""))))))))</f>
+        <v>25881</v>
+      </c>
+      <c r="X15" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>76807</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.9" customHeight="1">
       <c r="A16" s="3">
-        <v>44105</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E16" s="25">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -8804,57 +8803,57 @@
       <c r="N16" s="25"/>
       <c r="O16" s="34" t="str">
         <f>IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$1),CONCATENATE(SUM(E16:N16),"TB"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$2),CONCATENATE(SUM(E16:N16),"TB"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$3),CONCATENATE(SUM(E16:N16),"単位"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$4),CONCATENATE(SUM(E16:N16),"単位"),IF(AND(SUM(E16:N16)&gt;0,C16=Sheet1!$A$6),CONCATENATE(SUM(E16:N16),"単位"),"")))))</f>
-        <v>90TB</v>
+        <v>110TB</v>
       </c>
       <c r="P16" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>ストレージ大規模利用_個人ゲノム区画アーカイブ</v>
+        <v>ストレージ大規模利用_個人ゲノム区画Quota設定のみ</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="R16" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S16" s="46">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T16" s="46">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="U16" s="55" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(R16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,4,1),$A16&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R16/365)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(R16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(R16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*R16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*R16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*R16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*R16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V16" s="55" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(S16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,8,1),$A16&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,A16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S16/年間日数)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(S16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(S16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*S16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*S16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*S16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*S16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W16" s="61" t="e">
-        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ1,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ1単価*(T16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,$A16&gt;=DATE(年,12,1),$A16&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T16/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ1,B16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T16/年間日数)*消費税,0),IF($D16=ストレージ容量保証,ROUND(ROUNDUP($Q16/10,0)*ストレージ容量保証単価*(T16/年間日数)*消費税,0),IF($D16=アーカイブ,ROUND(ROUNDUP($Q16/10,0)*アーカイブ単価*(T16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*T16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*T16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*T16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*T16/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X16" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="U16" s="55">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(R16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,4,1),$A16&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*R16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*R16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*R16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*R16/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="55">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(S16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,8,1),$A16&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,A16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*S16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*S16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*S16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*S16/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="61">
+        <f>IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&lt;=30),0,IF(AND($P16=ストレージ一般解析Quota設定のみ,$Q16&gt;30),ROUND(ROUNDUP($Q16/10,0)*ストレージ一般解析Quota設定のみ単価*(T16/年間日数)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,$A16&gt;=DATE(年,12,1),$A16&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P15,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T16/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P16=ストレージ個人ゲノムQuota設定のみ,B16),ROUND(ROUNDUP($Q16/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T16/年間日数)*消費税,0),IF(OR($D16=ThinAMD一般解析,$D16=ThinAMD個人ゲノム,$D16=ThinIntel),ROUND(($Q16*ThinAMD単価*T16/30)*消費税,0),IF($D16=ThinIntelGPU,ROUND(($Q16*ThinIntelGPU単価*T16/30)*消費税,0),IF($D16=Medium,ROUND(($Q16*Medium単価*T16/30)*消費税,0),IF($D16=Fat,ROUND(($Q16*Fat単価*T16/30)*消費税,0),""))))))))</f>
+        <v>83569</v>
+      </c>
+      <c r="X16" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>83569</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.9" customHeight="1">
       <c r="A17" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B17" s="3">
-        <v>43951</v>
+        <v>45412</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="25">
         <v>2</v>
@@ -8881,46 +8880,46 @@
         <v>2</v>
       </c>
       <c r="R17" s="46">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="S17" s="46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="T17" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="55" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(R17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,4,1),$A17&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R17/365)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(R17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(R17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*R17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*R17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*R17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*R17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V17" s="55" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(S17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,8,1),$A17&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,A17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S17/年間日数)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(S17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(S17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*S17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*S17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*S17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*S17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W17" s="61" t="e">
-        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ1,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ1単価*(T17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,$A17&gt;=DATE(年,12,1),$A17&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T17/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ1,B17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T17/年間日数)*消費税,0),IF($D17=ストレージ容量保証,ROUND(ROUNDUP($Q17/10,0)*ストレージ容量保証単価*(T17/年間日数)*消費税,0),IF($D17=アーカイブ,ROUND(ROUNDUP($Q17/10,0)*アーカイブ単価*(T17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*T17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*T17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*T17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*T17/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X17" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U17" s="55">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(R17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,4,1),$A17&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*R17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*R17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*R17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*R17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="V17" s="55">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(S17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,8,1),$A17&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,A17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*S17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*S17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*S17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*S17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="W17" s="61">
+        <f>IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&lt;=30),0,IF(AND($P17=ストレージ一般解析Quota設定のみ,$Q17&gt;30),ROUND(ROUNDUP($Q17/10,0)*ストレージ一般解析Quota設定のみ単価*(T17/年間日数)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,$A17&gt;=DATE(年,12,1),$A17&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P16,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T17/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P17=ストレージ個人ゲノムQuota設定のみ,B17),ROUND(ROUNDUP($Q17/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T17/年間日数)*消費税,0),IF(OR($D17=ThinAMD一般解析,$D17=ThinAMD個人ゲノム,$D17=ThinIntel),ROUND(($Q17*ThinAMD単価*T17/30)*消費税,0),IF($D17=ThinIntelGPU,ROUND(($Q17*ThinIntelGPU単価*T17/30)*消費税,0),IF($D17=Medium,ROUND(($Q17*Medium単価*T17/30)*消費税,0),IF($D17=Fat,ROUND(($Q17*Fat単価*T17/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="X17" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>782520</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.9" customHeight="1">
       <c r="A18" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="3">
-        <v>44134</v>
+        <v>45595</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="25">
         <v>2</v>
@@ -8947,46 +8946,46 @@
         <v>2</v>
       </c>
       <c r="R18" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S18" s="46">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="T18" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="55" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(R18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,4,1),$A18&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R18/365)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(R18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(R18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*R18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*R18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*R18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*R18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V18" s="55" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(S18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,8,1),$A18&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,A18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S18/年間日数)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(S18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(S18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*S18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*S18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*S18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*S18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W18" s="61" t="e">
-        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ1,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ1単価*(T18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,$A18&gt;=DATE(年,12,1),$A18&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T18/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ1,B18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T18/年間日数)*消費税,0),IF($D18=ストレージ容量保証,ROUND(ROUNDUP($Q18/10,0)*ストレージ容量保証単価*(T18/年間日数)*消費税,0),IF($D18=アーカイブ,ROUND(ROUNDUP($Q18/10,0)*アーカイブ単価*(T18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*T18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*T18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*T18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*T18/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X18" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="U18" s="55">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(R18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,4,1),$A18&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*R18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*R18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*R18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*R18/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="55">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(S18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,8,1),$A18&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,A18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*S18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*S18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*S18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*S18/30)*消費税,0),""))))))))</f>
+        <v>130420</v>
+      </c>
+      <c r="W18" s="61">
+        <f>IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&lt;=30),0,IF(AND($P18=ストレージ一般解析Quota設定のみ,$Q18&gt;30),ROUND(ROUNDUP($Q18/10,0)*ストレージ一般解析Quota設定のみ単価*(T18/年間日数)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,$A18&gt;=DATE(年,12,1),$A18&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P17,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T18/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P18=ストレージ個人ゲノムQuota設定のみ,B18),ROUND(ROUNDUP($Q18/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T18/年間日数)*消費税,0),IF(OR($D18=ThinAMD一般解析,$D18=ThinAMD個人ゲノム,$D18=ThinIntel),ROUND(($Q18*ThinAMD単価*T18/30)*消費税,0),IF($D18=ThinIntelGPU,ROUND(($Q18*ThinIntelGPU単価*T18/30)*消費税,0),IF($D18=Medium,ROUND(($Q18*Medium単価*T18/30)*消費税,0),IF($D18=Fat,ROUND(($Q18*Fat単価*T18/30)*消費税,0),""))))))))</f>
+        <v>260840</v>
+      </c>
+      <c r="X18" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>391260</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.9" customHeight="1">
       <c r="A19" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B19" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="25">
         <v>5</v>
@@ -9013,46 +9012,46 @@
         <v>5</v>
       </c>
       <c r="R19" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U19" s="55" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(R19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,4,1),$A19&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R19/365)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(R19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(R19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*R19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*R19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*R19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*R19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V19" s="55" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(S19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,8,1),$A19&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,A19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S19/年間日数)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(S19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(S19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*S19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*S19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*S19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*S19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W19" s="61" t="e">
-        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ1,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ1単価*(T19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,$A19&gt;=DATE(年,12,1),$A19&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T19/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ1,B19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T19/年間日数)*消費税,0),IF($D19=ストレージ容量保証,ROUND(ROUNDUP($Q19/10,0)*ストレージ容量保証単価*(T19/年間日数)*消費税,0),IF($D19=アーカイブ,ROUND(ROUNDUP($Q19/10,0)*アーカイブ単価*(T19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*T19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*T19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*T19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*T19/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X19" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U19" s="55">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(R19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,4,1),$A19&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*R19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*R19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*R19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*R19/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="55">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(S19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,8,1),$A19&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,A19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*S19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*S19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*S19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*S19/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="61">
+        <f>IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&lt;=30),0,IF(AND($P19=ストレージ一般解析Quota設定のみ,$Q19&gt;30),ROUND(ROUNDUP($Q19/10,0)*ストレージ一般解析Quota設定のみ単価*(T19/年間日数)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,$A19&gt;=DATE(年,12,1),$A19&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P18,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T19/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P19=ストレージ個人ゲノムQuota設定のみ,B19),ROUND(ROUNDUP($Q19/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T19/年間日数)*消費税,0),IF(OR($D19=ThinAMD一般解析,$D19=ThinAMD個人ゲノム,$D19=ThinIntel),ROUND(($Q19*ThinAMD単価*T19/30)*消費税,0),IF($D19=ThinIntelGPU,ROUND(($Q19*ThinIntelGPU単価*T19/30)*消費税,0),IF($D19=Medium,ROUND(($Q19*Medium単価*T19/30)*消費税,0),IF($D19=Fat,ROUND(($Q19*Fat単価*T19/30)*消費税,0),""))))))))</f>
+        <v>5257</v>
+      </c>
+      <c r="X19" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.9" customHeight="1">
       <c r="A20" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B20" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E20" s="25">
         <v>5</v>
@@ -9072,53 +9071,53 @@
       </c>
       <c r="P20" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>計算ノード占有利用_個人ゲノム区画Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 4CPUコア 48GBメモリ)</v>
+        <v>計算ノード占有利用_個人ゲノム区画Thin(Intel/NVIDIA GPU)(1単位 = 1GPU 6CPUコア 96GBメモリ)</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="R20" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S20" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U20" s="55" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(R20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,4,1),$A20&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R20/365)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(R20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(R20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*R20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*R20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*R20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*R20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V20" s="55" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(S20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,8,1),$A20&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,A20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S20/年間日数)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(S20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(S20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*S20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*S20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*S20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*S20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W20" s="61" t="e">
-        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ1,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ1単価*(T20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,$A20&gt;=DATE(年,12,1),$A20&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T20/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ1,B20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T20/年間日数)*消費税,0),IF($D20=ストレージ容量保証,ROUND(ROUNDUP($Q20/10,0)*ストレージ容量保証単価*(T20/年間日数)*消費税,0),IF($D20=アーカイブ,ROUND(ROUNDUP($Q20/10,0)*アーカイブ単価*(T20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*T20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*T20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*T20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*T20/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X20" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U20" s="55">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(R20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,4,1),$A20&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*R20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*R20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*R20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*R20/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="55">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(S20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,8,1),$A20&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,A20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*S20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*S20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*S20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*S20/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="61">
+        <f>IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&lt;=30),0,IF(AND($P20=ストレージ一般解析Quota設定のみ,$Q20&gt;30),ROUND(ROUNDUP($Q20/10,0)*ストレージ一般解析Quota設定のみ単価*(T20/年間日数)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,$A20&gt;=DATE(年,12,1),$A20&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P19,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T20/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P20=ストレージ個人ゲノムQuota設定のみ,B20),ROUND(ROUNDUP($Q20/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T20/年間日数)*消費税,0),IF(OR($D20=ThinAMD一般解析,$D20=ThinAMD個人ゲノム,$D20=ThinIntel),ROUND(($Q20*ThinAMD単価*T20/30)*消費税,0),IF($D20=ThinIntelGPU,ROUND(($Q20*ThinIntelGPU単価*T20/30)*消費税,0),IF($D20=Medium,ROUND(($Q20*Medium単価*T20/30)*消費税,0),IF($D20=Fat,ROUND(($Q20*Fat単価*T20/30)*消費税,0),""))))))))</f>
+        <v>660000</v>
+      </c>
+      <c r="X20" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.9" customHeight="1">
       <c r="A21" s="3">
-        <v>44224</v>
+        <v>45319</v>
       </c>
       <c r="B21" s="3">
-        <v>44286</v>
+        <v>45382</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="25">
         <v>5</v>
@@ -9145,32 +9144,32 @@
         <v>5</v>
       </c>
       <c r="R21" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S21" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="46">
-        <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="U21" s="55" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(R21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,4,1),$A21&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R21/365)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(R21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(R21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*R21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*R21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*R21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*R21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V21" s="55" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(S21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,8,1),$A21&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,A21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S21/年間日数)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(S21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(S21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*S21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*S21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*S21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*S21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W21" s="61" t="e">
-        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ1,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ1単価*(T21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,$A21&gt;=DATE(年,12,1),$A21&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T21/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ1,B21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T21/年間日数)*消費税,0),IF($D21=ストレージ容量保証,ROUND(ROUNDUP($Q21/10,0)*ストレージ容量保証単価*(T21/年間日数)*消費税,0),IF($D21=アーカイブ,ROUND(ROUNDUP($Q21/10,0)*アーカイブ単価*(T21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*T21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*T21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*T21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*T21/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X21" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="U21" s="55">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(R21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,4,1),$A21&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*R21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*R21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*R21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*R21/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="55">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(S21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,8,1),$A21&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,A21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*S21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*S21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*S21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*S21/30)*消費税,0),""))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="61">
+        <f>IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&lt;=30),0,IF(AND($P21=ストレージ一般解析Quota設定のみ,$Q21&gt;30),ROUND(ROUNDUP($Q21/10,0)*ストレージ一般解析Quota設定のみ単価*(T21/年間日数)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,$A21&gt;=DATE(年,12,1),$A21&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P20,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T21/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P21=ストレージ個人ゲノムQuota設定のみ,B21),ROUND(ROUNDUP($Q21/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T21/年間日数)*消費税,0),IF(OR($D21=ThinAMD一般解析,$D21=ThinAMD個人ゲノム,$D21=ThinIntel),ROUND(($Q21*ThinAMD単価*T21/30)*消費税,0),IF($D21=ThinIntelGPU,ROUND(($Q21*ThinIntelGPU単価*T21/30)*消費税,0),IF($D21=Medium,ROUND(($Q21*Medium単価*T21/30)*消費税,0),IF($D21=Fat,ROUND(($Q21*Fat単価*T21/30)*消費税,0),""))))))))</f>
+        <v>342085</v>
+      </c>
+      <c r="X21" s="15">
         <f t="shared" si="3"/>
-        <v>#NAME?</v>
+        <v>342085</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.9" customHeight="1">
@@ -9201,28 +9200,28 @@
         <v>0</v>
       </c>
       <c r="R22" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="55" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(R22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,4,1),$A22&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R22/365)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(R22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(R22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*R22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*R22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*R22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*R22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V22" s="55" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(S22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,8,1),$A22&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,A22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S22/年間日数)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(S22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(S22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*S22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*S22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*S22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*S22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W22" s="61" t="e">
-        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ1,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ1単価*(T22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,$A22&gt;=DATE(年,12,1),$A22&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T22/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ1,B22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T22/年間日数)*消費税,0),IF($D22=ストレージ容量保証,ROUND(ROUNDUP($Q22/10,0)*ストレージ容量保証単価*(T22/年間日数)*消費税,0),IF($D22=アーカイブ,ROUND(ROUNDUP($Q22/10,0)*アーカイブ単価*(T22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*T22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*T22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*T22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*T22/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="55" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(R22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,4,1),$A22&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*R22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*R22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*R22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*R22/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V22" s="55" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(S22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,8,1),$A22&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,A22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*S22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*S22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*S22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*S22/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W22" s="61" t="str">
+        <f>IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&lt;=30),0,IF(AND($P22=ストレージ一般解析Quota設定のみ,$Q22&gt;30),ROUND(ROUNDUP($Q22/10,0)*ストレージ一般解析Quota設定のみ単価*(T22/年間日数)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,$A22&gt;=DATE(年,12,1),$A22&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P21,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T22/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P22=ストレージ個人ゲノムQuota設定のみ,B22),ROUND(ROUNDUP($Q22/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T22/年間日数)*消費税,0),IF(OR($D22=ThinAMD一般解析,$D22=ThinAMD個人ゲノム,$D22=ThinIntel),ROUND(($Q22*ThinAMD単価*T22/30)*消費税,0),IF($D22=ThinIntelGPU,ROUND(($Q22*ThinIntelGPU単価*T22/30)*消費税,0),IF($D22=Medium,ROUND(($Q22*Medium単価*T22/30)*消費税,0),IF($D22=Fat,ROUND(($Q22*Fat単価*T22/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X22" s="15" t="str">
         <f t="shared" si="3"/>
@@ -9257,28 +9256,28 @@
         <v>0</v>
       </c>
       <c r="R23" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S23" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="55" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(R23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,4,1),$A23&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R23/365)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(R23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(R23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*R23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*R23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*R23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*R23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V23" s="55" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(S23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,8,1),$A23&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,A23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S23/年間日数)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(S23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(S23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*S23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*S23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*S23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*S23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W23" s="61" t="e">
-        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ1,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ1単価*(T23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,$A23&gt;=DATE(年,12,1),$A23&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T23/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ1,B23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T23/年間日数)*消費税,0),IF($D23=ストレージ容量保証,ROUND(ROUNDUP($Q23/10,0)*ストレージ容量保証単価*(T23/年間日数)*消費税,0),IF($D23=アーカイブ,ROUND(ROUNDUP($Q23/10,0)*アーカイブ単価*(T23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*T23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*T23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*T23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*T23/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="55" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(R23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,4,1),$A23&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*R23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*R23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*R23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*R23/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V23" s="55" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(S23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,8,1),$A23&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,A23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*S23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*S23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*S23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*S23/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W23" s="61" t="str">
+        <f>IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&lt;=30),0,IF(AND($P23=ストレージ一般解析Quota設定のみ,$Q23&gt;30),ROUND(ROUNDUP($Q23/10,0)*ストレージ一般解析Quota設定のみ単価*(T23/年間日数)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,$A23&gt;=DATE(年,12,1),$A23&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P22,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T23/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P23=ストレージ個人ゲノムQuota設定のみ,B23),ROUND(ROUNDUP($Q23/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T23/年間日数)*消費税,0),IF(OR($D23=ThinAMD一般解析,$D23=ThinAMD個人ゲノム,$D23=ThinIntel),ROUND(($Q23*ThinAMD単価*T23/30)*消費税,0),IF($D23=ThinIntelGPU,ROUND(($Q23*ThinIntelGPU単価*T23/30)*消費税,0),IF($D23=Medium,ROUND(($Q23*Medium単価*T23/30)*消費税,0),IF($D23=Fat,ROUND(($Q23*Fat単価*T23/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X23" s="15" t="str">
         <f t="shared" si="3"/>
@@ -9313,28 +9312,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S24" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="55" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(R24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,4,1),$A24&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R24/365)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(R24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(R24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*R24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*R24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*R24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*R24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V24" s="55" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(S24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,8,1),$A24&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,A24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S24/年間日数)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(S24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(S24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*S24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*S24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*S24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*S24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W24" s="61" t="e">
-        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ1,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ1単価*(T24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,$A24&gt;=DATE(年,12,1),$A24&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T24/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ1,B24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T24/年間日数)*消費税,0),IF($D24=ストレージ容量保証,ROUND(ROUNDUP($Q24/10,0)*ストレージ容量保証単価*(T24/年間日数)*消費税,0),IF($D24=アーカイブ,ROUND(ROUNDUP($Q24/10,0)*アーカイブ単価*(T24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*T24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*T24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*T24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*T24/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="55" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(R24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,4,1),$A24&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*R24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*R24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*R24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*R24/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V24" s="55" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(S24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,8,1),$A24&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,A24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*S24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*S24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*S24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*S24/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W24" s="61" t="str">
+        <f>IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&lt;=30),0,IF(AND($P24=ストレージ一般解析Quota設定のみ,$Q24&gt;30),ROUND(ROUNDUP($Q24/10,0)*ストレージ一般解析Quota設定のみ単価*(T24/年間日数)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,$A24&gt;=DATE(年,12,1),$A24&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P23,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T24/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P24=ストレージ個人ゲノムQuota設定のみ,B24),ROUND(ROUNDUP($Q24/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T24/年間日数)*消費税,0),IF(OR($D24=ThinAMD一般解析,$D24=ThinAMD個人ゲノム,$D24=ThinIntel),ROUND(($Q24*ThinAMD単価*T24/30)*消費税,0),IF($D24=ThinIntelGPU,ROUND(($Q24*ThinIntelGPU単価*T24/30)*消費税,0),IF($D24=Medium,ROUND(($Q24*Medium単価*T24/30)*消費税,0),IF($D24=Fat,ROUND(($Q24*Fat単価*T24/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X24" s="15" t="str">
         <f t="shared" si="3"/>
@@ -9369,28 +9368,28 @@
         <v>0</v>
       </c>
       <c r="R25" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S25" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="55" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(R25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,4,1),$A25&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R25/365)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(R25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(R25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*R25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*R25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*R25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*R25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V25" s="55" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(S25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,8,1),$A25&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,A25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S25/年間日数)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(S25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(S25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*S25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*S25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*S25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*S25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W25" s="61" t="e">
-        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ1,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ1単価*(T25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,$A25&gt;=DATE(年,12,1),$A25&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T25/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ1,B25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T25/年間日数)*消費税,0),IF($D25=ストレージ容量保証,ROUND(ROUNDUP($Q25/10,0)*ストレージ容量保証単価*(T25/年間日数)*消費税,0),IF($D25=アーカイブ,ROUND(ROUNDUP($Q25/10,0)*アーカイブ単価*(T25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*T25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*T25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*T25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*T25/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="55" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(R25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,4,1),$A25&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*R25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*R25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*R25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*R25/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V25" s="55" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(S25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,8,1),$A25&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,A25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*S25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*S25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*S25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*S25/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W25" s="61" t="str">
+        <f>IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&lt;=30),0,IF(AND($P25=ストレージ一般解析Quota設定のみ,$Q25&gt;30),ROUND(ROUNDUP($Q25/10,0)*ストレージ一般解析Quota設定のみ単価*(T25/年間日数)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,$A25&gt;=DATE(年,12,1),$A25&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P24,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T25/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P25=ストレージ個人ゲノムQuota設定のみ,B25),ROUND(ROUNDUP($Q25/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T25/年間日数)*消費税,0),IF(OR($D25=ThinAMD一般解析,$D25=ThinAMD個人ゲノム,$D25=ThinIntel),ROUND(($Q25*ThinAMD単価*T25/30)*消費税,0),IF($D25=ThinIntelGPU,ROUND(($Q25*ThinIntelGPU単価*T25/30)*消費税,0),IF($D25=Medium,ROUND(($Q25*Medium単価*T25/30)*消費税,0),IF($D25=Fat,ROUND(($Q25*Fat単価*T25/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X25" s="15" t="str">
         <f t="shared" si="3"/>
@@ -9425,28 +9424,28 @@
         <v>0</v>
       </c>
       <c r="R26" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S26" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="55" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(R26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,4,1),$A26&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(R26/365)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(R26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(R26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*R26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*R26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*R26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*R26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V26" s="55" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(S26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,8,1),$A26&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,A26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(S26/年間日数)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(S26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(S26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*S26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*S26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*S26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*S26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W26" s="61" t="e">
-        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ1,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ1単価*(T26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,$A26&gt;=DATE(年,12,1),$A26&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ1))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T26/年間日数)+ストレージ個人ゲノムQuota設定のみ1基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ1,B26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ1単価*(T26/年間日数)*消費税,0),IF($D26=ストレージ容量保証,ROUND(ROUNDUP($Q26/10,0)*ストレージ容量保証単価*(T26/年間日数)*消費税,0),IF($D26=アーカイブ,ROUND(ROUNDUP($Q26/10,0)*アーカイブ単価*(T26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*T26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*T26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*T26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*T26/30)*消費税,0),""))))))))))</f>
-        <v>#NAME?</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="55" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(R26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,4,1),$A26&lt;=DATE(年,7,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(R26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*R26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*R26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*R26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*R26/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="V26" s="55" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(S26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,8,1),$A26&lt;=DATE(年,11,30),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,A26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(S26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*S26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*S26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*S26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*S26/30)*消費税,0),""))))))))</f>
+        <v/>
+      </c>
+      <c r="W26" s="61" t="str">
+        <f>IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&lt;=30),0,IF(AND($P26=ストレージ一般解析Quota設定のみ,$Q26&gt;30),ROUND(ROUNDUP($Q26/10,0)*ストレージ一般解析Quota設定のみ単価*(T26/年間日数)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,$A26&gt;=DATE(年,12,1),$A26&lt;=DATE(年+1,3,31),NOT(COUNTIF($P$12:$P25,ストレージ個人ゲノムQuota設定のみ))),ROUND((ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T26/年間日数)+ストレージ個人ゲノムQuota設定のみ基本料金)*消費税,0),IF(AND($P26=ストレージ個人ゲノムQuota設定のみ,B26),ROUND(ROUNDUP($Q26/10,0)*ストレージ個人ゲノムQuota設定のみ単価*(T26/年間日数)*消費税,0),IF(OR($D26=ThinAMD一般解析,$D26=ThinAMD個人ゲノム,$D26=ThinIntel),ROUND(($Q26*ThinAMD単価*T26/30)*消費税,0),IF($D26=ThinIntelGPU,ROUND(($Q26*ThinIntelGPU単価*T26/30)*消費税,0),IF($D26=Medium,ROUND(($Q26*Medium単価*T26/30)*消費税,0),IF($D26=Fat,ROUND(($Q26*Fat単価*T26/30)*消費税,0),""))))))))</f>
+        <v/>
       </c>
       <c r="X26" s="43" t="str">
         <f t="shared" si="3"/>
@@ -9454,23 +9453,23 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.9" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="136"/>
+      <c r="A27" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
       <c r="R27" s="58"/>
@@ -9489,140 +9488,140 @@
         <v>0</v>
       </c>
       <c r="X27" s="60">
-        <f t="shared" ref="X27:X36" si="9">SUM(U27:W27)</f>
+        <f t="shared" ref="X27:X36" si="6">SUM(U27:W27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A28" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="133"/>
+      <c r="A28" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="54"/>
-      <c r="U28" s="2" t="e">
+      <c r="U28" s="2">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V28" s="2" t="e">
+        <v>260840</v>
+      </c>
+      <c r="V28" s="2">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W28" s="44" t="e">
+        <v>391260</v>
+      </c>
+      <c r="W28" s="44">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X28" s="45" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>521680</v>
+      </c>
+      <c r="X28" s="45">
+        <f t="shared" si="6"/>
+        <v>1173780</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A29" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
+      <c r="A29" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="50"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
-      <c r="U29" s="1" t="e">
+      <c r="U29" s="1">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V29" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W29" s="51" t="e">
+        <v>0</v>
+      </c>
+      <c r="W29" s="51">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X29" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>1007342</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="6"/>
+        <v>1007342</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A30" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
+      <c r="A30" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="162"/>
       <c r="P30" s="54"/>
       <c r="U30" s="22">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>112038</v>
       </c>
       <c r="V30" s="22">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>117131</v>
       </c>
       <c r="W30" s="23">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!$B$1)</f>
-        <v>0</v>
+        <v>122223</v>
       </c>
       <c r="X30" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>351392</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A31" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="163"/>
+      <c r="A31" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="165"/>
       <c r="P31" s="54"/>
       <c r="U31" s="18">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$1,$D12:$D26,Sheet1!#REF!)</f>
@@ -9637,28 +9636,28 @@
         <v>0</v>
       </c>
       <c r="X31" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A32" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="133"/>
+      <c r="A32" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="135"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
@@ -9677,64 +9676,64 @@
         <v>0</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A33" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="166"/>
+      <c r="A33" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="168"/>
       <c r="P33" s="54"/>
       <c r="U33" s="19">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>183334</v>
       </c>
       <c r="V33" s="21">
         <f>SUMIFS(V12:V26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>96760</v>
       </c>
       <c r="W33" s="20">
         <f>SUMIFS(W12:W26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!$B$2)</f>
-        <v>0</v>
+        <v>109450</v>
       </c>
       <c r="X33" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>389544</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A34" s="158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="160"/>
+      <c r="A34" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="162"/>
       <c r="P34" s="54"/>
       <c r="U34" s="22">
         <f>SUMIFS(U12:U26,$C12:$C26,Sheet1!$A$2,$D12:$D26,Sheet1!#REF!)</f>
@@ -9749,28 +9748,28 @@
         <v>0</v>
       </c>
       <c r="X34" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A35" s="131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="133"/>
+      <c r="A35" s="133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="135"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
@@ -9789,44 +9788,44 @@
         <v>0</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A36" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="133"/>
+      <c r="A36" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="135"/>
       <c r="P36" s="54"/>
-      <c r="U36" s="2" t="e">
+      <c r="U36" s="2">
         <f>SUM(U12:U26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V36" s="2" t="e">
+        <v>556212</v>
+      </c>
+      <c r="V36" s="2">
         <f>SUM(V12:V26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W36" s="17" t="e">
+        <v>605151</v>
+      </c>
+      <c r="W36" s="17">
         <f>SUM(W12:W26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X36" s="16" t="e">
-        <f t="shared" si="9"/>
-        <v>#NAME?</v>
+        <v>1760695</v>
+      </c>
+      <c r="X36" s="16">
+        <f t="shared" si="6"/>
+        <v>2922058</v>
       </c>
     </row>
   </sheetData>
@@ -9887,25 +9886,25 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9913,52 +9912,52 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9966,34 +9965,34 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -10001,7 +10000,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
@@ -10009,7 +10008,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>27778</v>
@@ -10017,7 +10016,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>27778</v>
@@ -10025,7 +10024,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>83333</v>
@@ -10033,7 +10032,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>448</v>
@@ -10041,7 +10040,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>448</v>
@@ -10049,15 +10048,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>2690</v>
+        <v>56250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>29155</v>
@@ -10065,7 +10064,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>55977</v>
@@ -10082,33 +10081,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B064706-AF13-4834-89F6-187C76217077}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="167" t="s">
-        <v>100</v>
+      <c r="A1" s="85" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="168" t="s">
-        <v>97</v>
+      <c r="A2" s="86" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="168" t="s">
-        <v>101</v>
+      <c r="A3" s="86" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="167" t="s">
-        <v>98</v>
+      <c r="A5" s="85" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="167" t="s">
-        <v>99</v>
+      <c r="A6" s="85" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
